--- a/teaching/traditional_assets/database/data/netherlands/netherlands_software_internet.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_software_internet.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="enxtam_tie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0554</v>
+        <v>-0.065</v>
       </c>
       <c r="G2">
-        <v>0.01982035928143713</v>
+        <v>0.1114754098360656</v>
       </c>
       <c r="H2">
-        <v>0.01982035928143713</v>
+        <v>0.02950819672131148</v>
       </c>
       <c r="I2">
-        <v>-0.06467065868263473</v>
+        <v>0.02693989071038251</v>
       </c>
       <c r="J2">
-        <v>-0.06467065868263473</v>
+        <v>0.01346994535519126</v>
       </c>
       <c r="K2">
-        <v>-1.43</v>
+        <v>7.65</v>
       </c>
       <c r="L2">
-        <v>-0.08562874251497006</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +629,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.23</v>
+        <v>6.91</v>
       </c>
       <c r="V2">
-        <v>0.1467105263157895</v>
+        <v>0.2433098591549296</v>
       </c>
       <c r="W2">
-        <v>-0.2504378283712784</v>
+        <v>2.007874015748031</v>
       </c>
       <c r="X2">
-        <v>0.0826236134190699</v>
+        <v>0.05464014985333597</v>
       </c>
       <c r="Y2">
-        <v>-0.3330614417903484</v>
+        <v>1.953233865894695</v>
       </c>
       <c r="Z2">
-        <v>6.883759274525969</v>
+        <v>-20.33333333333334</v>
       </c>
       <c r="AA2">
-        <v>-0.4451772464962903</v>
+        <v>-0.2738888888888889</v>
       </c>
       <c r="AB2">
-        <v>0.0826236134190699</v>
+        <v>0.0533574224420129</v>
       </c>
       <c r="AC2">
-        <v>-0.5278008599153602</v>
+        <v>-0.3272463113309018</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG2">
-        <v>-2.23</v>
+        <v>-5.73</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.03989181879648411</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.09161490683229814</v>
       </c>
       <c r="AJ2">
-        <v>-0.1719352351580571</v>
+        <v>-0.2527569475077195</v>
       </c>
       <c r="AK2">
-        <v>-1.411392405063291</v>
+        <v>-0.9597989949748746</v>
       </c>
       <c r="AL2">
-        <v>0.06</v>
+        <v>0.039</v>
       </c>
       <c r="AM2">
-        <v>0.06</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.185185185185185</v>
       </c>
       <c r="AO2">
-        <v>-18</v>
+        <v>12.64102564102564</v>
       </c>
       <c r="AP2">
-        <v>-6.737160120845921</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="AQ2">
-        <v>-18</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0554</v>
+        <v>-0.065</v>
       </c>
       <c r="G3">
-        <v>0.01982035928143713</v>
+        <v>0.1114754098360656</v>
       </c>
       <c r="H3">
-        <v>0.01982035928143713</v>
+        <v>0.02950819672131148</v>
       </c>
       <c r="I3">
-        <v>-0.06467065868263473</v>
+        <v>0.02693989071038251</v>
       </c>
       <c r="J3">
-        <v>-0.06467065868263473</v>
+        <v>0.01346994535519126</v>
       </c>
       <c r="K3">
-        <v>-1.43</v>
+        <v>7.65</v>
       </c>
       <c r="L3">
-        <v>-0.08562874251497006</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +748,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +757,8786 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.23</v>
+        <v>6.91</v>
       </c>
       <c r="V3">
-        <v>0.1467105263157895</v>
+        <v>0.2433098591549296</v>
       </c>
       <c r="W3">
-        <v>-0.2504378283712784</v>
+        <v>2.007874015748031</v>
       </c>
       <c r="X3">
-        <v>0.0826236134190699</v>
+        <v>0.05464014985333597</v>
       </c>
       <c r="Y3">
-        <v>-0.3330614417903484</v>
+        <v>1.953233865894695</v>
       </c>
       <c r="Z3">
-        <v>6.883759274525969</v>
+        <v>-20.33333333333334</v>
       </c>
       <c r="AA3">
-        <v>-0.4451772464962903</v>
+        <v>-0.2738888888888889</v>
       </c>
       <c r="AB3">
-        <v>0.0826236134190699</v>
+        <v>0.0533574224420129</v>
       </c>
       <c r="AC3">
-        <v>-0.5278008599153602</v>
+        <v>-0.3272463113309018</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG3">
-        <v>-2.23</v>
+        <v>-5.73</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.03989181879648411</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.09161490683229814</v>
       </c>
       <c r="AJ3">
-        <v>-0.1719352351580571</v>
+        <v>-0.2527569475077195</v>
       </c>
       <c r="AK3">
-        <v>-1.411392405063291</v>
+        <v>-0.9597989949748746</v>
       </c>
       <c r="AL3">
+        <v>0.039</v>
+      </c>
+      <c r="AM3">
+        <v>0.009999999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>2.185185185185185</v>
+      </c>
+      <c r="AO3">
+        <v>12.64102564102564</v>
+      </c>
+      <c r="AP3">
+        <v>-10.61111111111111</v>
+      </c>
+      <c r="AQ3">
+        <v>49.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TIE Kinetix N.V. (ENXTAM:TIE)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENXTAM:TIE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (Internet)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0398918187964841</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>28.4</v>
+      </c>
+      <c r="H2">
+        <v>22.3899201536941</v>
+      </c>
+      <c r="I2">
+        <v>22.67</v>
+      </c>
+      <c r="J2">
+        <v>15.7757201536941</v>
+      </c>
+      <c r="K2">
+        <v>1.18</v>
+      </c>
+      <c r="L2">
+        <v>0.2958</v>
+      </c>
+      <c r="M2">
+        <v>0.0533574224420129</v>
+      </c>
+      <c r="N2">
+        <v>0.0726113263312137</v>
+      </c>
+      <c r="O2">
+        <v>0.022485</v>
+      </c>
+      <c r="P2">
+        <v>1.60357829614604</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.054640149853336</v>
+      </c>
+      <c r="T2">
+        <v>0.0571470135048013</v>
+      </c>
+      <c r="U2">
+        <v>0.960596395197796</v>
+      </c>
+      <c r="V2">
+        <v>1.01370791323731</v>
+      </c>
+      <c r="W2">
+        <v>-30.91732816866728</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>28.4</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.02998</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.54</v>
+      </c>
+      <c r="AH2">
+        <v>2.22</v>
+      </c>
+      <c r="AI2">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>1.18</v>
+      </c>
+      <c r="AK2">
+        <v>1.18</v>
+      </c>
+      <c r="AL2">
+        <v>0.039</v>
+      </c>
+      <c r="AM2">
+        <v>1.18</v>
+      </c>
+      <c r="AN2">
+        <v>6.91</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1.18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6.91</v>
+      </c>
+      <c r="H2">
+        <v>28.4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.54</v>
+      </c>
+      <c r="K2">
+        <v>2.22</v>
+      </c>
+      <c r="L2">
+        <v>-1.68</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-1.68</v>
+      </c>
+      <c r="O2">
+        <v>-0.42</v>
+      </c>
+      <c r="P2">
+        <v>-1.26</v>
+      </c>
+      <c r="Q2">
+        <v>0.96</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07261132633121369</v>
+      </c>
+      <c r="C3">
+        <v>22.38992015369411</v>
+      </c>
+      <c r="D3">
+        <v>15.77572015369411</v>
+      </c>
+      <c r="E3">
+        <v>-0.8841999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.2958</v>
+      </c>
+      <c r="G3">
+        <v>6.91</v>
+      </c>
+      <c r="H3">
+        <v>28.4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.54</v>
+      </c>
+      <c r="K3">
+        <v>2.22</v>
+      </c>
+      <c r="L3">
+        <v>-1.68</v>
+      </c>
+      <c r="M3">
+        <v>0.05433846000000001</v>
+      </c>
+      <c r="N3">
+        <v>-1.73433846</v>
+      </c>
+      <c r="O3">
+        <v>-0.4335846150000001</v>
+      </c>
+      <c r="P3">
+        <v>-1.300753845</v>
+      </c>
+      <c r="Q3">
+        <v>0.919246155</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05714701350480125</v>
+      </c>
+      <c r="T3">
+        <v>1.013707913237315</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-7.729332042166819</v>
+      </c>
+      <c r="W3">
+        <v>1.603578296146045</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-30.91732816866728</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07435532633121367</v>
+      </c>
+      <c r="C4">
+        <v>21.67120542096389</v>
+      </c>
+      <c r="D4">
+        <v>15.35280542096389</v>
+      </c>
+      <c r="E4">
+        <v>-0.5883999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.5916</v>
+      </c>
+      <c r="G4">
+        <v>6.91</v>
+      </c>
+      <c r="H4">
+        <v>28.4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.54</v>
+      </c>
+      <c r="K4">
+        <v>2.22</v>
+      </c>
+      <c r="L4">
+        <v>-1.68</v>
+      </c>
+      <c r="M4">
+        <v>0.10867692</v>
+      </c>
+      <c r="N4">
+        <v>-1.78867692</v>
+      </c>
+      <c r="O4">
+        <v>-0.44716923</v>
+      </c>
+      <c r="P4">
+        <v>-1.34150769</v>
+      </c>
+      <c r="Q4">
+        <v>0.8784923100000002</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05763524833648288</v>
+      </c>
+      <c r="T4">
+        <v>1.024051871535654</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-3.864666021083409</v>
+      </c>
+      <c r="W4">
+        <v>0.8936391480730224</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-15.45866408433364</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07609932633121366</v>
+      </c>
+      <c r="C5">
+        <v>20.97457364428698</v>
+      </c>
+      <c r="D5">
+        <v>14.95197364428699</v>
+      </c>
+      <c r="E5">
+        <v>-0.2926</v>
+      </c>
+      <c r="F5">
+        <v>0.8874</v>
+      </c>
+      <c r="G5">
+        <v>6.91</v>
+      </c>
+      <c r="H5">
+        <v>28.4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.54</v>
+      </c>
+      <c r="K5">
+        <v>2.22</v>
+      </c>
+      <c r="L5">
+        <v>-1.68</v>
+      </c>
+      <c r="M5">
+        <v>0.16301538</v>
+      </c>
+      <c r="N5">
+        <v>-1.84301538</v>
+      </c>
+      <c r="O5">
+        <v>-0.4607538450000001</v>
+      </c>
+      <c r="P5">
+        <v>-1.382261535</v>
+      </c>
+      <c r="Q5">
+        <v>0.8377384650000002</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05813354986572497</v>
+      </c>
+      <c r="T5">
+        <v>1.034609107324682</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-2.576444014055607</v>
+      </c>
+      <c r="W5">
+        <v>0.656992765382015</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-10.30577605622243</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07784332633121367</v>
+      </c>
+      <c r="C6">
+        <v>20.29833920330827</v>
+      </c>
+      <c r="D6">
+        <v>14.57153920330827</v>
+      </c>
+      <c r="E6">
+        <v>0.003200000000000092</v>
+      </c>
+      <c r="F6">
+        <v>1.1832</v>
+      </c>
+      <c r="G6">
+        <v>6.91</v>
+      </c>
+      <c r="H6">
+        <v>28.4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.54</v>
+      </c>
+      <c r="K6">
+        <v>2.22</v>
+      </c>
+      <c r="L6">
+        <v>-1.68</v>
+      </c>
+      <c r="M6">
+        <v>0.21735384</v>
+      </c>
+      <c r="N6">
+        <v>-1.89735384</v>
+      </c>
+      <c r="O6">
+        <v>-0.47433846</v>
+      </c>
+      <c r="P6">
+        <v>-1.42301538</v>
+      </c>
+      <c r="Q6">
+        <v>0.7969846200000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05864223267682628</v>
+      </c>
+      <c r="T6">
+        <v>1.045386285525981</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-1.932333010541705</v>
+      </c>
+      <c r="W6">
+        <v>0.5386695740365112</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-7.729332042166819</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07958732633121367</v>
+      </c>
+      <c r="C7">
+        <v>19.64098377508189</v>
+      </c>
+      <c r="D7">
+        <v>14.20998377508189</v>
+      </c>
+      <c r="E7">
+        <v>0.2990000000000002</v>
+      </c>
+      <c r="F7">
+        <v>1.479</v>
+      </c>
+      <c r="G7">
+        <v>6.91</v>
+      </c>
+      <c r="H7">
+        <v>28.4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.54</v>
+      </c>
+      <c r="K7">
+        <v>2.22</v>
+      </c>
+      <c r="L7">
+        <v>-1.68</v>
+      </c>
+      <c r="M7">
+        <v>0.2716923</v>
+      </c>
+      <c r="N7">
+        <v>-1.9516923</v>
+      </c>
+      <c r="O7">
+        <v>-0.487923075</v>
+      </c>
+      <c r="P7">
+        <v>-1.463769225</v>
+      </c>
+      <c r="Q7">
+        <v>0.7562307750000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05916162459974024</v>
+      </c>
+      <c r="T7">
+        <v>1.056390351689412</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-1.545866408433364</v>
+      </c>
+      <c r="W7">
+        <v>0.467675659229209</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-6.183465633733456</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>0.06</v>
       </c>
-      <c r="AM3">
-        <v>0.06</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>-18</v>
-      </c>
-      <c r="AP3">
-        <v>-6.737160120845921</v>
-      </c>
-      <c r="AQ3">
-        <v>-18</v>
+      <c r="B8">
+        <v>0.08133132633121368</v>
+      </c>
+      <c r="C8">
+        <v>19.0011360813078</v>
+      </c>
+      <c r="D8">
+        <v>13.8659360813078</v>
+      </c>
+      <c r="E8">
+        <v>0.5948</v>
+      </c>
+      <c r="F8">
+        <v>1.7748</v>
+      </c>
+      <c r="G8">
+        <v>6.91</v>
+      </c>
+      <c r="H8">
+        <v>28.4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.54</v>
+      </c>
+      <c r="K8">
+        <v>2.22</v>
+      </c>
+      <c r="L8">
+        <v>-1.68</v>
+      </c>
+      <c r="M8">
+        <v>0.32603076</v>
+      </c>
+      <c r="N8">
+        <v>-2.00603076</v>
+      </c>
+      <c r="O8">
+        <v>-0.5015076900000001</v>
+      </c>
+      <c r="P8">
+        <v>-1.50452307</v>
+      </c>
+      <c r="Q8">
+        <v>0.7154769299999999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05969206741463109</v>
+      </c>
+      <c r="T8">
+        <v>1.06762854692015</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-1.288222007027803</v>
+      </c>
+      <c r="W8">
+        <v>0.4203463826910075</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-5.152888028111214</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.08307532633121369</v>
+      </c>
+      <c r="C9">
+        <v>18.37755450814016</v>
+      </c>
+      <c r="D9">
+        <v>13.53815450814016</v>
+      </c>
+      <c r="E9">
+        <v>0.8906000000000003</v>
+      </c>
+      <c r="F9">
+        <v>2.0706</v>
+      </c>
+      <c r="G9">
+        <v>6.91</v>
+      </c>
+      <c r="H9">
+        <v>28.4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.54</v>
+      </c>
+      <c r="K9">
+        <v>2.22</v>
+      </c>
+      <c r="L9">
+        <v>-1.68</v>
+      </c>
+      <c r="M9">
+        <v>0.3803692200000001</v>
+      </c>
+      <c r="N9">
+        <v>-2.06036922</v>
+      </c>
+      <c r="O9">
+        <v>-0.515092305</v>
+      </c>
+      <c r="P9">
+        <v>-1.545276915</v>
+      </c>
+      <c r="Q9">
+        <v>0.6747230850000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06023391760188521</v>
+      </c>
+      <c r="T9">
+        <v>1.079108423768754</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-1.104190291738117</v>
+      </c>
+      <c r="W9">
+        <v>0.3865397565922921</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-4.416761166952467</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08481932633121367</v>
+      </c>
+      <c r="C10">
+        <v>17.76911213420472</v>
+      </c>
+      <c r="D10">
+        <v>13.22551213420472</v>
+      </c>
+      <c r="E10">
+        <v>1.1864</v>
+      </c>
+      <c r="F10">
+        <v>2.3664</v>
+      </c>
+      <c r="G10">
+        <v>6.91</v>
+      </c>
+      <c r="H10">
+        <v>28.4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.54</v>
+      </c>
+      <c r="K10">
+        <v>2.22</v>
+      </c>
+      <c r="L10">
+        <v>-1.68</v>
+      </c>
+      <c r="M10">
+        <v>0.43470768</v>
+      </c>
+      <c r="N10">
+        <v>-2.11470768</v>
+      </c>
+      <c r="O10">
+        <v>-0.5286769200000001</v>
+      </c>
+      <c r="P10">
+        <v>-1.58603076</v>
+      </c>
+      <c r="Q10">
+        <v>0.6339692399999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06078754714103611</v>
+      </c>
+      <c r="T10">
+        <v>1.090837863157545</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.9661665052708523</v>
+      </c>
+      <c r="W10">
+        <v>0.3611847870182556</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-3.86466602108341</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08656332633121368</v>
+      </c>
+      <c r="C11">
+        <v>17.17478378631588</v>
+      </c>
+      <c r="D11">
+        <v>12.92698378631589</v>
+      </c>
+      <c r="E11">
+        <v>1.4822</v>
+      </c>
+      <c r="F11">
+        <v>2.6622</v>
+      </c>
+      <c r="G11">
+        <v>6.91</v>
+      </c>
+      <c r="H11">
+        <v>28.4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.54</v>
+      </c>
+      <c r="K11">
+        <v>2.22</v>
+      </c>
+      <c r="L11">
+        <v>-1.68</v>
+      </c>
+      <c r="M11">
+        <v>0.48904614</v>
+      </c>
+      <c r="N11">
+        <v>-2.16904614</v>
+      </c>
+      <c r="O11">
+        <v>-0.5422615350000001</v>
+      </c>
+      <c r="P11">
+        <v>-1.626784605</v>
+      </c>
+      <c r="Q11">
+        <v>0.5932153950000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06135334436236618</v>
+      </c>
+      <c r="T11">
+        <v>1.102825092423012</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.858814671351869</v>
+      </c>
+      <c r="W11">
+        <v>0.3414642551273384</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-3.435258685407476</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08830732633121369</v>
+      </c>
+      <c r="C12">
+        <v>16.59363480957892</v>
+      </c>
+      <c r="D12">
+        <v>12.64163480957892</v>
+      </c>
+      <c r="E12">
+        <v>1.778</v>
+      </c>
+      <c r="F12">
+        <v>2.958</v>
+      </c>
+      <c r="G12">
+        <v>6.91</v>
+      </c>
+      <c r="H12">
+        <v>28.4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.54</v>
+      </c>
+      <c r="K12">
+        <v>2.22</v>
+      </c>
+      <c r="L12">
+        <v>-1.68</v>
+      </c>
+      <c r="M12">
+        <v>0.5433846</v>
+      </c>
+      <c r="N12">
+        <v>-2.2233846</v>
+      </c>
+      <c r="O12">
+        <v>-0.55584615</v>
+      </c>
+      <c r="P12">
+        <v>-1.66753845</v>
+      </c>
+      <c r="Q12">
+        <v>0.5524615500000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06193171485528137</v>
+      </c>
+      <c r="T12">
+        <v>1.115078704561046</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.772933204216682</v>
+      </c>
+      <c r="W12">
+        <v>0.3256878296146045</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-3.091732816866728</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09005132633121368</v>
+      </c>
+      <c r="C13">
+        <v>16.02481129269604</v>
+      </c>
+      <c r="D13">
+        <v>12.36861129269603</v>
+      </c>
+      <c r="E13">
+        <v>2.0738</v>
+      </c>
+      <c r="F13">
+        <v>3.2538</v>
+      </c>
+      <c r="G13">
+        <v>6.91</v>
+      </c>
+      <c r="H13">
+        <v>28.4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.54</v>
+      </c>
+      <c r="K13">
+        <v>2.22</v>
+      </c>
+      <c r="L13">
+        <v>-1.68</v>
+      </c>
+      <c r="M13">
+        <v>0.59772306</v>
+      </c>
+      <c r="N13">
+        <v>-2.27772306</v>
+      </c>
+      <c r="O13">
+        <v>-0.569430765</v>
+      </c>
+      <c r="P13">
+        <v>-1.708292295</v>
+      </c>
+      <c r="Q13">
+        <v>0.5117077050000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06252308243792498</v>
+      </c>
+      <c r="T13">
+        <v>1.127607678769597</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.7026665492878927</v>
+      </c>
+      <c r="W13">
+        <v>0.3127798451041859</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-2.810666197151571</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09179532633121368</v>
+      </c>
+      <c r="C14">
+        <v>15.46753153312934</v>
+      </c>
+      <c r="D14">
+        <v>12.10713153312934</v>
+      </c>
+      <c r="E14">
+        <v>2.3696</v>
+      </c>
+      <c r="F14">
+        <v>3.5496</v>
+      </c>
+      <c r="G14">
+        <v>6.91</v>
+      </c>
+      <c r="H14">
+        <v>28.4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.54</v>
+      </c>
+      <c r="K14">
+        <v>2.22</v>
+      </c>
+      <c r="L14">
+        <v>-1.68</v>
+      </c>
+      <c r="M14">
+        <v>0.65206152</v>
+      </c>
+      <c r="N14">
+        <v>-2.33206152</v>
+      </c>
+      <c r="O14">
+        <v>-0.58301538</v>
+      </c>
+      <c r="P14">
+        <v>-1.74904614</v>
+      </c>
+      <c r="Q14">
+        <v>0.4709538600000003</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0631278901929014</v>
+      </c>
+      <c r="T14">
+        <v>1.140421402391979</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.6441110035139017</v>
+      </c>
+      <c r="W14">
+        <v>0.3020231913455038</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-2.576444014055606</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09353932633121369</v>
+      </c>
+      <c r="C15">
+        <v>14.92107856244011</v>
+      </c>
+      <c r="D15">
+        <v>11.85647856244011</v>
+      </c>
+      <c r="E15">
+        <v>2.6654</v>
+      </c>
+      <c r="F15">
+        <v>3.8454</v>
+      </c>
+      <c r="G15">
+        <v>6.91</v>
+      </c>
+      <c r="H15">
+        <v>28.4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.54</v>
+      </c>
+      <c r="K15">
+        <v>2.22</v>
+      </c>
+      <c r="L15">
+        <v>-1.68</v>
+      </c>
+      <c r="M15">
+        <v>0.7063999799999999</v>
+      </c>
+      <c r="N15">
+        <v>-2.38639998</v>
+      </c>
+      <c r="O15">
+        <v>-0.596599995</v>
+      </c>
+      <c r="P15">
+        <v>-1.789799985</v>
+      </c>
+      <c r="Q15">
+        <v>0.430200015</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.063746601574429</v>
+      </c>
+      <c r="T15">
+        <v>1.153529694373496</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.5945640032436016</v>
+      </c>
+      <c r="W15">
+        <v>0.2929214073958496</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-2.378256012974406</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09528332633121368</v>
+      </c>
+      <c r="C16">
+        <v>14.38479358127942</v>
+      </c>
+      <c r="D16">
+        <v>11.61599358127942</v>
+      </c>
+      <c r="E16">
+        <v>2.961200000000001</v>
+      </c>
+      <c r="F16">
+        <v>4.1412</v>
+      </c>
+      <c r="G16">
+        <v>6.91</v>
+      </c>
+      <c r="H16">
+        <v>28.4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.54</v>
+      </c>
+      <c r="K16">
+        <v>2.22</v>
+      </c>
+      <c r="L16">
+        <v>-1.68</v>
+      </c>
+      <c r="M16">
+        <v>0.7607384400000001</v>
+      </c>
+      <c r="N16">
+        <v>-2.440738440000001</v>
+      </c>
+      <c r="O16">
+        <v>-0.6101846100000001</v>
+      </c>
+      <c r="P16">
+        <v>-1.83055383</v>
+      </c>
+      <c r="Q16">
+        <v>0.3894461699999998</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06437970159273632</v>
+      </c>
+      <c r="T16">
+        <v>1.166942830354583</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.5520951458690585</v>
+      </c>
+      <c r="W16">
+        <v>0.285119878296146</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-2.208380583476234</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09702732633121369</v>
+      </c>
+      <c r="C17">
+        <v>13.85807017744438</v>
+      </c>
+      <c r="D17">
+        <v>11.38507017744438</v>
+      </c>
+      <c r="E17">
+        <v>3.257</v>
+      </c>
+      <c r="F17">
+        <v>4.436999999999999</v>
+      </c>
+      <c r="G17">
+        <v>6.91</v>
+      </c>
+      <c r="H17">
+        <v>28.4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.54</v>
+      </c>
+      <c r="K17">
+        <v>2.22</v>
+      </c>
+      <c r="L17">
+        <v>-1.68</v>
+      </c>
+      <c r="M17">
+        <v>0.8150768999999999</v>
+      </c>
+      <c r="N17">
+        <v>-2.4950769</v>
+      </c>
+      <c r="O17">
+        <v>-0.623769225</v>
+      </c>
+      <c r="P17">
+        <v>-1.871307675</v>
+      </c>
+      <c r="Q17">
+        <v>0.3486923250000002</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06502769808206263</v>
+      </c>
+      <c r="T17">
+        <v>1.180671569535225</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.5152888028111213</v>
+      </c>
+      <c r="W17">
+        <v>0.278358553076403</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-2.061155211244485</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09877132633121367</v>
+      </c>
+      <c r="C18">
+        <v>13.34034922015401</v>
+      </c>
+      <c r="D18">
+        <v>11.16314922015401</v>
+      </c>
+      <c r="E18">
+        <v>3.5528</v>
+      </c>
+      <c r="F18">
+        <v>4.7328</v>
+      </c>
+      <c r="G18">
+        <v>6.91</v>
+      </c>
+      <c r="H18">
+        <v>28.4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.54</v>
+      </c>
+      <c r="K18">
+        <v>2.22</v>
+      </c>
+      <c r="L18">
+        <v>-1.68</v>
+      </c>
+      <c r="M18">
+        <v>0.8694153600000001</v>
+      </c>
+      <c r="N18">
+        <v>-2.54941536</v>
+      </c>
+      <c r="O18">
+        <v>-0.6373538400000001</v>
+      </c>
+      <c r="P18">
+        <v>-1.91206152</v>
+      </c>
+      <c r="Q18">
+        <v>0.30793848</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06569112305923004</v>
+      </c>
+      <c r="T18">
+        <v>1.194727183458264</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.4830832526354262</v>
+      </c>
+      <c r="W18">
+        <v>0.2724423935091277</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-1.932333010541705</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1005153263312137</v>
+      </c>
+      <c r="C19">
+        <v>12.83111434004125</v>
+      </c>
+      <c r="D19">
+        <v>10.94971434004125</v>
+      </c>
+      <c r="E19">
+        <v>3.8486</v>
+      </c>
+      <c r="F19">
+        <v>5.0286</v>
+      </c>
+      <c r="G19">
+        <v>6.91</v>
+      </c>
+      <c r="H19">
+        <v>28.4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.54</v>
+      </c>
+      <c r="K19">
+        <v>2.22</v>
+      </c>
+      <c r="L19">
+        <v>-1.68</v>
+      </c>
+      <c r="M19">
+        <v>0.9237538200000001</v>
+      </c>
+      <c r="N19">
+        <v>-2.60375382</v>
+      </c>
+      <c r="O19">
+        <v>-0.650938455</v>
+      </c>
+      <c r="P19">
+        <v>-1.952815365</v>
+      </c>
+      <c r="Q19">
+        <v>0.267184635</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06637053418042557</v>
+      </c>
+      <c r="T19">
+        <v>1.209121486873423</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.4546665907156953</v>
+      </c>
+      <c r="W19">
+        <v>0.2672222527144732</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-1.818666362862781</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1022593263312137</v>
+      </c>
+      <c r="C20">
+        <v>12.32988791794141</v>
+      </c>
+      <c r="D20">
+        <v>10.74428791794141</v>
+      </c>
+      <c r="E20">
+        <v>4.1444</v>
+      </c>
+      <c r="F20">
+        <v>5.3244</v>
+      </c>
+      <c r="G20">
+        <v>6.91</v>
+      </c>
+      <c r="H20">
+        <v>28.4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.54</v>
+      </c>
+      <c r="K20">
+        <v>2.22</v>
+      </c>
+      <c r="L20">
+        <v>-1.68</v>
+      </c>
+      <c r="M20">
+        <v>0.9780922799999999</v>
+      </c>
+      <c r="N20">
+        <v>-2.65809228</v>
+      </c>
+      <c r="O20">
+        <v>-0.66452307</v>
+      </c>
+      <c r="P20">
+        <v>-1.99356921</v>
+      </c>
+      <c r="Q20">
+        <v>0.2264307900000002</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06706651630457711</v>
+      </c>
+      <c r="T20">
+        <v>1.223866870859684</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.4294073356759345</v>
+      </c>
+      <c r="W20">
+        <v>0.2625821275636692</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-1.717629342703738</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1040033263312137</v>
+      </c>
+      <c r="C21">
+        <v>11.83622751688902</v>
+      </c>
+      <c r="D21">
+        <v>10.54642751688902</v>
+      </c>
+      <c r="E21">
+        <v>4.4402</v>
+      </c>
+      <c r="F21">
+        <v>5.6202</v>
+      </c>
+      <c r="G21">
+        <v>6.91</v>
+      </c>
+      <c r="H21">
+        <v>28.4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.54</v>
+      </c>
+      <c r="K21">
+        <v>2.22</v>
+      </c>
+      <c r="L21">
+        <v>-1.68</v>
+      </c>
+      <c r="M21">
+        <v>1.03243074</v>
+      </c>
+      <c r="N21">
+        <v>-2.71243074</v>
+      </c>
+      <c r="O21">
+        <v>-0.6781076850000001</v>
+      </c>
+      <c r="P21">
+        <v>-2.034323055</v>
+      </c>
+      <c r="Q21">
+        <v>0.185676945</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06777968317253485</v>
+      </c>
+      <c r="T21">
+        <v>1.238976338401162</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.4068069495877274</v>
+      </c>
+      <c r="W21">
+        <v>0.2584304366392655</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-1.62722779835091</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1057473263312137</v>
+      </c>
+      <c r="C22">
+        <v>11.34972270122321</v>
+      </c>
+      <c r="D22">
+        <v>10.35572270122321</v>
+      </c>
+      <c r="E22">
+        <v>4.736000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.916</v>
+      </c>
+      <c r="G22">
+        <v>6.91</v>
+      </c>
+      <c r="H22">
+        <v>28.4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.54</v>
+      </c>
+      <c r="K22">
+        <v>2.22</v>
+      </c>
+      <c r="L22">
+        <v>-1.68</v>
+      </c>
+      <c r="M22">
+        <v>1.0867692</v>
+      </c>
+      <c r="N22">
+        <v>-2.7667692</v>
+      </c>
+      <c r="O22">
+        <v>-0.6916923</v>
+      </c>
+      <c r="P22">
+        <v>-2.0750769</v>
+      </c>
+      <c r="Q22">
+        <v>0.1449231000000002</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06851067921219153</v>
+      </c>
+      <c r="T22">
+        <v>1.254463542631177</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.386466602108341</v>
+      </c>
+      <c r="W22">
+        <v>0.2546939148073022</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-1.545866408433364</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1074913263312137</v>
+      </c>
+      <c r="C23">
+        <v>10.86999219467303</v>
+      </c>
+      <c r="D23">
+        <v>10.17179219467303</v>
+      </c>
+      <c r="E23">
+        <v>5.0318</v>
+      </c>
+      <c r="F23">
+        <v>6.211799999999999</v>
+      </c>
+      <c r="G23">
+        <v>6.91</v>
+      </c>
+      <c r="H23">
+        <v>28.4</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.54</v>
+      </c>
+      <c r="K23">
+        <v>2.22</v>
+      </c>
+      <c r="L23">
+        <v>-1.68</v>
+      </c>
+      <c r="M23">
+        <v>1.14110766</v>
+      </c>
+      <c r="N23">
+        <v>-2.82110766</v>
+      </c>
+      <c r="O23">
+        <v>-0.705276915</v>
+      </c>
+      <c r="P23">
+        <v>-2.115830745</v>
+      </c>
+      <c r="Q23">
+        <v>0.104169255</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0692601814807003</v>
+      </c>
+      <c r="T23">
+        <v>1.270342827980939</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.3680634305793724</v>
+      </c>
+      <c r="W23">
+        <v>0.2513132521974307</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-1.47225372231749</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1092353263312137</v>
+      </c>
+      <c r="C24">
+        <v>10.39668133601315</v>
+      </c>
+      <c r="D24">
+        <v>9.994281336013151</v>
+      </c>
+      <c r="E24">
+        <v>5.3276</v>
+      </c>
+      <c r="F24">
+        <v>6.5076</v>
+      </c>
+      <c r="G24">
+        <v>6.91</v>
+      </c>
+      <c r="H24">
+        <v>28.4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.54</v>
+      </c>
+      <c r="K24">
+        <v>2.22</v>
+      </c>
+      <c r="L24">
+        <v>-1.68</v>
+      </c>
+      <c r="M24">
+        <v>1.19544612</v>
+      </c>
+      <c r="N24">
+        <v>-2.87544612</v>
+      </c>
+      <c r="O24">
+        <v>-0.7188615300000001</v>
+      </c>
+      <c r="P24">
+        <v>-2.15658459</v>
+      </c>
+      <c r="Q24">
+        <v>0.06341540999999973</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07002890175609389</v>
+      </c>
+      <c r="T24">
+        <v>1.286629274493515</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.3513332746439464</v>
+      </c>
+      <c r="W24">
+        <v>0.248239922552093</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-1.405333098575785</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1109793263312137</v>
+      </c>
+      <c r="C25">
+        <v>9.929459796562448</v>
+      </c>
+      <c r="D25">
+        <v>9.822859796562447</v>
+      </c>
+      <c r="E25">
+        <v>5.6234</v>
+      </c>
+      <c r="F25">
+        <v>6.8034</v>
+      </c>
+      <c r="G25">
+        <v>6.91</v>
+      </c>
+      <c r="H25">
+        <v>28.4</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.54</v>
+      </c>
+      <c r="K25">
+        <v>2.22</v>
+      </c>
+      <c r="L25">
+        <v>-1.68</v>
+      </c>
+      <c r="M25">
+        <v>1.24978458</v>
+      </c>
+      <c r="N25">
+        <v>-2.92978458</v>
+      </c>
+      <c r="O25">
+        <v>-0.732446145</v>
+      </c>
+      <c r="P25">
+        <v>-2.197338435</v>
+      </c>
+      <c r="Q25">
+        <v>0.02266156499999994</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07081758879188731</v>
+      </c>
+      <c r="T25">
+        <v>1.303338745590833</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.3360579148768182</v>
+      </c>
+      <c r="W25">
+        <v>0.2454338389628715</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-1.344231659507273</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1127233263312137</v>
+      </c>
+      <c r="C26">
+        <v>9.468019528618033</v>
+      </c>
+      <c r="D26">
+        <v>9.657219528618032</v>
+      </c>
+      <c r="E26">
+        <v>5.9192</v>
+      </c>
+      <c r="F26">
+        <v>7.0992</v>
+      </c>
+      <c r="G26">
+        <v>6.91</v>
+      </c>
+      <c r="H26">
+        <v>28.4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.54</v>
+      </c>
+      <c r="K26">
+        <v>2.22</v>
+      </c>
+      <c r="L26">
+        <v>-1.68</v>
+      </c>
+      <c r="M26">
+        <v>1.30412304</v>
+      </c>
+      <c r="N26">
+        <v>-2.98412304</v>
+      </c>
+      <c r="O26">
+        <v>-0.74603076</v>
+      </c>
+      <c r="P26">
+        <v>-2.23809228</v>
+      </c>
+      <c r="Q26">
+        <v>-0.01809227999999985</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0716270307496753</v>
+      </c>
+      <c r="T26">
+        <v>1.320487939611765</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.3220555017569509</v>
+      </c>
+      <c r="W26">
+        <v>0.2428615956727519</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-1.288222007027803</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1144673263312137</v>
+      </c>
+      <c r="C27">
+        <v>9.012072918017065</v>
+      </c>
+      <c r="D27">
+        <v>9.497072918017064</v>
+      </c>
+      <c r="E27">
+        <v>6.215</v>
+      </c>
+      <c r="F27">
+        <v>7.395</v>
+      </c>
+      <c r="G27">
+        <v>6.91</v>
+      </c>
+      <c r="H27">
+        <v>28.4</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.54</v>
+      </c>
+      <c r="K27">
+        <v>2.22</v>
+      </c>
+      <c r="L27">
+        <v>-1.68</v>
+      </c>
+      <c r="M27">
+        <v>1.3584615</v>
+      </c>
+      <c r="N27">
+        <v>-3.0384615</v>
+      </c>
+      <c r="O27">
+        <v>-0.7596153750000001</v>
+      </c>
+      <c r="P27">
+        <v>-2.278846125</v>
+      </c>
+      <c r="Q27">
+        <v>-0.05884612500000008</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07245805782633764</v>
+      </c>
+      <c r="T27">
+        <v>1.338094445473255</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.3091732816866728</v>
+      </c>
+      <c r="W27">
+        <v>0.2404951318458418</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-1.236693126746691</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1162113263312137</v>
+      </c>
+      <c r="C28">
+        <v>8.561351117517557</v>
+      </c>
+      <c r="D28">
+        <v>9.342151117517558</v>
+      </c>
+      <c r="E28">
+        <v>6.5108</v>
+      </c>
+      <c r="F28">
+        <v>7.690799999999999</v>
+      </c>
+      <c r="G28">
+        <v>6.91</v>
+      </c>
+      <c r="H28">
+        <v>28.4</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.54</v>
+      </c>
+      <c r="K28">
+        <v>2.22</v>
+      </c>
+      <c r="L28">
+        <v>-1.68</v>
+      </c>
+      <c r="M28">
+        <v>1.41279996</v>
+      </c>
+      <c r="N28">
+        <v>-3.09279996</v>
+      </c>
+      <c r="O28">
+        <v>-0.7731999899999999</v>
+      </c>
+      <c r="P28">
+        <v>-2.31959997</v>
+      </c>
+      <c r="Q28">
+        <v>-0.09959996999999943</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07331154509426113</v>
+      </c>
+      <c r="T28">
+        <v>1.356176802844515</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.2972820016218008</v>
+      </c>
+      <c r="W28">
+        <v>0.2383107036979248</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-1.189128006487203</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1179553263312137</v>
+      </c>
+      <c r="C29">
+        <v>8.115602540682165</v>
+      </c>
+      <c r="D29">
+        <v>9.192202540682166</v>
+      </c>
+      <c r="E29">
+        <v>6.8066</v>
+      </c>
+      <c r="F29">
+        <v>7.9866</v>
+      </c>
+      <c r="G29">
+        <v>6.91</v>
+      </c>
+      <c r="H29">
+        <v>28.4</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.54</v>
+      </c>
+      <c r="K29">
+        <v>2.22</v>
+      </c>
+      <c r="L29">
+        <v>-1.68</v>
+      </c>
+      <c r="M29">
+        <v>1.46713842</v>
+      </c>
+      <c r="N29">
+        <v>-3.14713842</v>
+      </c>
+      <c r="O29">
+        <v>-0.786784605</v>
+      </c>
+      <c r="P29">
+        <v>-2.360353815</v>
+      </c>
+      <c r="Q29">
+        <v>-0.1403538149999997</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07418841557500443</v>
+      </c>
+      <c r="T29">
+        <v>1.374754567267043</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.2862715571172896</v>
+      </c>
+      <c r="W29">
+        <v>0.2362880850424461</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-1.145086228469158</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1196993263312137</v>
+      </c>
+      <c r="C30">
+        <v>7.674591498516438</v>
+      </c>
+      <c r="D30">
+        <v>9.046991498516439</v>
+      </c>
+      <c r="E30">
+        <v>7.102400000000001</v>
+      </c>
+      <c r="F30">
+        <v>8.282400000000001</v>
+      </c>
+      <c r="G30">
+        <v>6.91</v>
+      </c>
+      <c r="H30">
+        <v>28.4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.54</v>
+      </c>
+      <c r="K30">
+        <v>2.22</v>
+      </c>
+      <c r="L30">
+        <v>-1.68</v>
+      </c>
+      <c r="M30">
+        <v>1.52147688</v>
+      </c>
+      <c r="N30">
+        <v>-3.20147688</v>
+      </c>
+      <c r="O30">
+        <v>-0.8003692200000001</v>
+      </c>
+      <c r="P30">
+        <v>-2.40110766</v>
+      </c>
+      <c r="Q30">
+        <v>-0.1811076599999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07508964356910171</v>
+      </c>
+      <c r="T30">
+        <v>1.393848380701307</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.2760475729345293</v>
+      </c>
+      <c r="W30">
+        <v>0.234409939148073</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-1.104190291738117</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1214433263312137</v>
+      </c>
+      <c r="C31">
+        <v>7.238096963321251</v>
+      </c>
+      <c r="D31">
+        <v>8.90629696332125</v>
+      </c>
+      <c r="E31">
+        <v>7.398199999999999</v>
+      </c>
+      <c r="F31">
+        <v>8.578199999999999</v>
+      </c>
+      <c r="G31">
+        <v>6.91</v>
+      </c>
+      <c r="H31">
+        <v>28.4</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.54</v>
+      </c>
+      <c r="K31">
+        <v>2.22</v>
+      </c>
+      <c r="L31">
+        <v>-1.68</v>
+      </c>
+      <c r="M31">
+        <v>1.57581534</v>
+      </c>
+      <c r="N31">
+        <v>-3.25581534</v>
+      </c>
+      <c r="O31">
+        <v>-0.813953835</v>
+      </c>
+      <c r="P31">
+        <v>-2.441861505</v>
+      </c>
+      <c r="Q31">
+        <v>-0.2218615049999997</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07601625826725807</v>
+      </c>
+      <c r="T31">
+        <v>1.413480048035129</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.2665286911092007</v>
+      </c>
+      <c r="W31">
+        <v>0.2326613205567602</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-1.066114764436803</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1231873263312137</v>
+      </c>
+      <c r="C32">
+        <v>6.80591144612279</v>
+      </c>
+      <c r="D32">
+        <v>8.769911446122789</v>
+      </c>
+      <c r="E32">
+        <v>7.693999999999999</v>
+      </c>
+      <c r="F32">
+        <v>8.873999999999999</v>
+      </c>
+      <c r="G32">
+        <v>6.91</v>
+      </c>
+      <c r="H32">
+        <v>28.4</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.54</v>
+      </c>
+      <c r="K32">
+        <v>2.22</v>
+      </c>
+      <c r="L32">
+        <v>-1.68</v>
+      </c>
+      <c r="M32">
+        <v>1.6301538</v>
+      </c>
+      <c r="N32">
+        <v>-3.3101538</v>
+      </c>
+      <c r="O32">
+        <v>-0.82753845</v>
+      </c>
+      <c r="P32">
+        <v>-2.48261535</v>
+      </c>
+      <c r="Q32">
+        <v>-0.2626153499999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07696934767107605</v>
+      </c>
+      <c r="T32">
+        <v>1.433672620149916</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.2576444014055607</v>
+      </c>
+      <c r="W32">
+        <v>0.2310292765382015</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-1.030577605622243</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1249313263312137</v>
+      </c>
+      <c r="C33">
+        <v>6.37783997568901</v>
+      </c>
+      <c r="D33">
+        <v>8.637639975689009</v>
+      </c>
+      <c r="E33">
+        <v>7.989799999999999</v>
+      </c>
+      <c r="F33">
+        <v>9.169799999999999</v>
+      </c>
+      <c r="G33">
+        <v>6.91</v>
+      </c>
+      <c r="H33">
+        <v>28.4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.54</v>
+      </c>
+      <c r="K33">
+        <v>2.22</v>
+      </c>
+      <c r="L33">
+        <v>-1.68</v>
+      </c>
+      <c r="M33">
+        <v>1.68449226</v>
+      </c>
+      <c r="N33">
+        <v>-3.36449226</v>
+      </c>
+      <c r="O33">
+        <v>-0.841123065</v>
+      </c>
+      <c r="P33">
+        <v>-2.523369195</v>
+      </c>
+      <c r="Q33">
+        <v>-0.3033691949999997</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07795006285471484</v>
+      </c>
+      <c r="T33">
+        <v>1.45445048421006</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.2493332916828007</v>
+      </c>
+      <c r="W33">
+        <v>0.2295025256821305</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.9973331667312026</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1266753263312137</v>
+      </c>
+      <c r="C34">
+        <v>5.953699168566621</v>
+      </c>
+      <c r="D34">
+        <v>8.509299168566621</v>
+      </c>
+      <c r="E34">
+        <v>8.285600000000001</v>
+      </c>
+      <c r="F34">
+        <v>9.4656</v>
+      </c>
+      <c r="G34">
+        <v>6.91</v>
+      </c>
+      <c r="H34">
+        <v>28.4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.54</v>
+      </c>
+      <c r="K34">
+        <v>2.22</v>
+      </c>
+      <c r="L34">
+        <v>-1.68</v>
+      </c>
+      <c r="M34">
+        <v>1.73883072</v>
+      </c>
+      <c r="N34">
+        <v>-3.41883072</v>
+      </c>
+      <c r="O34">
+        <v>-0.8547076800000001</v>
+      </c>
+      <c r="P34">
+        <v>-2.56412304</v>
+      </c>
+      <c r="Q34">
+        <v>-0.3441230399999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07895962260257829</v>
+      </c>
+      <c r="T34">
+        <v>1.475839461919031</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.2415416263177131</v>
+      </c>
+      <c r="W34">
+        <v>0.2280711967545639</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.9661665052708523</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1284193263312137</v>
+      </c>
+      <c r="C35">
+        <v>5.533316380810444</v>
+      </c>
+      <c r="D35">
+        <v>8.384716380810444</v>
+      </c>
+      <c r="E35">
+        <v>8.5814</v>
+      </c>
+      <c r="F35">
+        <v>9.7614</v>
+      </c>
+      <c r="G35">
+        <v>6.91</v>
+      </c>
+      <c r="H35">
+        <v>28.4</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.54</v>
+      </c>
+      <c r="K35">
+        <v>2.22</v>
+      </c>
+      <c r="L35">
+        <v>-1.68</v>
+      </c>
+      <c r="M35">
+        <v>1.79316918</v>
+      </c>
+      <c r="N35">
+        <v>-3.47316918</v>
+      </c>
+      <c r="O35">
+        <v>-0.868292295</v>
+      </c>
+      <c r="P35">
+        <v>-2.604876885</v>
+      </c>
+      <c r="Q35">
+        <v>-0.3848768850000002</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07999931846231827</v>
+      </c>
+      <c r="T35">
+        <v>1.49786691657454</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.2342221830959642</v>
+      </c>
+      <c r="W35">
+        <v>0.2267266150347287</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.9368887323838568</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1301633263312137</v>
+      </c>
+      <c r="C36">
+        <v>5.116528933153571</v>
+      </c>
+      <c r="D36">
+        <v>8.263728933153571</v>
+      </c>
+      <c r="E36">
+        <v>8.8772</v>
+      </c>
+      <c r="F36">
+        <v>10.0572</v>
+      </c>
+      <c r="G36">
+        <v>6.91</v>
+      </c>
+      <c r="H36">
+        <v>28.4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.54</v>
+      </c>
+      <c r="K36">
+        <v>2.22</v>
+      </c>
+      <c r="L36">
+        <v>-1.68</v>
+      </c>
+      <c r="M36">
+        <v>1.84750764</v>
+      </c>
+      <c r="N36">
+        <v>-3.52750764</v>
+      </c>
+      <c r="O36">
+        <v>-0.8818769100000001</v>
+      </c>
+      <c r="P36">
+        <v>-2.645630730000001</v>
+      </c>
+      <c r="Q36">
+        <v>-0.4256307300000004</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08107052025720188</v>
+      </c>
+      <c r="T36">
+        <v>1.520561869855972</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.2273332953578476</v>
+      </c>
+      <c r="W36">
+        <v>0.2254611263572366</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.9093331814313905</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1319073263312137</v>
+      </c>
+      <c r="C37">
+        <v>4.703183402305868</v>
+      </c>
+      <c r="D37">
+        <v>8.146183402305867</v>
+      </c>
+      <c r="E37">
+        <v>9.173</v>
+      </c>
+      <c r="F37">
+        <v>10.353</v>
+      </c>
+      <c r="G37">
+        <v>6.91</v>
+      </c>
+      <c r="H37">
+        <v>28.4</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.54</v>
+      </c>
+      <c r="K37">
+        <v>2.22</v>
+      </c>
+      <c r="L37">
+        <v>-1.68</v>
+      </c>
+      <c r="M37">
+        <v>1.9018461</v>
+      </c>
+      <c r="N37">
+        <v>-3.5818461</v>
+      </c>
+      <c r="O37">
+        <v>-0.895461525</v>
+      </c>
+      <c r="P37">
+        <v>-2.686384575</v>
+      </c>
+      <c r="Q37">
+        <v>-0.4663845749999997</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08217468210731267</v>
+      </c>
+      <c r="T37">
+        <v>1.543955129392218</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.2208380583476234</v>
+      </c>
+      <c r="W37">
+        <v>0.2242679513184584</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.8833522333904935</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1336513263312137</v>
+      </c>
+      <c r="C38">
+        <v>4.293134971888804</v>
+      </c>
+      <c r="D38">
+        <v>8.031934971888804</v>
+      </c>
+      <c r="E38">
+        <v>9.4688</v>
+      </c>
+      <c r="F38">
+        <v>10.6488</v>
+      </c>
+      <c r="G38">
+        <v>6.91</v>
+      </c>
+      <c r="H38">
+        <v>28.4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.54</v>
+      </c>
+      <c r="K38">
+        <v>2.22</v>
+      </c>
+      <c r="L38">
+        <v>-1.68</v>
+      </c>
+      <c r="M38">
+        <v>1.95618456</v>
+      </c>
+      <c r="N38">
+        <v>-3.63618456</v>
+      </c>
+      <c r="O38">
+        <v>-0.9090461400000001</v>
+      </c>
+      <c r="P38">
+        <v>-2.72713842</v>
+      </c>
+      <c r="Q38">
+        <v>-0.50713842</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08331334901523942</v>
+      </c>
+      <c r="T38">
+        <v>1.568079428288971</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.2147036678379672</v>
+      </c>
+      <c r="W38">
+        <v>0.2231410637818346</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.858814671351869</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1353953263312137</v>
+      </c>
+      <c r="C39">
+        <v>3.886246837232802</v>
+      </c>
+      <c r="D39">
+        <v>7.920846837232802</v>
+      </c>
+      <c r="E39">
+        <v>9.7646</v>
+      </c>
+      <c r="F39">
+        <v>10.9446</v>
+      </c>
+      <c r="G39">
+        <v>6.91</v>
+      </c>
+      <c r="H39">
+        <v>28.4</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.54</v>
+      </c>
+      <c r="K39">
+        <v>2.22</v>
+      </c>
+      <c r="L39">
+        <v>-1.68</v>
+      </c>
+      <c r="M39">
+        <v>2.01052302</v>
+      </c>
+      <c r="N39">
+        <v>-3.69052302</v>
+      </c>
+      <c r="O39">
+        <v>-0.922630755</v>
+      </c>
+      <c r="P39">
+        <v>-2.767892265</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5478922649999998</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0844881640789734</v>
+      </c>
+      <c r="T39">
+        <v>1.592969577944352</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.2089008660045086</v>
+      </c>
+      <c r="W39">
+        <v>0.2220750890850282</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.8356034640180345</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1371393263312137</v>
+      </c>
+      <c r="C40">
+        <v>3.482389658893615</v>
+      </c>
+      <c r="D40">
+        <v>7.812789658893614</v>
+      </c>
+      <c r="E40">
+        <v>10.0604</v>
+      </c>
+      <c r="F40">
+        <v>11.2404</v>
+      </c>
+      <c r="G40">
+        <v>6.91</v>
+      </c>
+      <c r="H40">
+        <v>28.4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.54</v>
+      </c>
+      <c r="K40">
+        <v>2.22</v>
+      </c>
+      <c r="L40">
+        <v>-1.68</v>
+      </c>
+      <c r="M40">
+        <v>2.06486148</v>
+      </c>
+      <c r="N40">
+        <v>-3.74486148</v>
+      </c>
+      <c r="O40">
+        <v>-0.93621537</v>
+      </c>
+      <c r="P40">
+        <v>-2.80864611</v>
+      </c>
+      <c r="Q40">
+        <v>-0.5886461099999996</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08570087640282779</v>
+      </c>
+      <c r="T40">
+        <v>1.618662635653131</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.2034034747938637</v>
+      </c>
+      <c r="W40">
+        <v>0.2210652183196328</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.8136138991754547</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1388833263312137</v>
+      </c>
+      <c r="C41">
+        <v>3.081441060297804</v>
+      </c>
+      <c r="D41">
+        <v>7.707641060297804</v>
+      </c>
+      <c r="E41">
+        <v>10.3562</v>
+      </c>
+      <c r="F41">
+        <v>11.5362</v>
+      </c>
+      <c r="G41">
+        <v>6.91</v>
+      </c>
+      <c r="H41">
+        <v>28.4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.54</v>
+      </c>
+      <c r="K41">
+        <v>2.22</v>
+      </c>
+      <c r="L41">
+        <v>-1.68</v>
+      </c>
+      <c r="M41">
+        <v>2.11919994</v>
+      </c>
+      <c r="N41">
+        <v>-3.79919994</v>
+      </c>
+      <c r="O41">
+        <v>-0.949799985</v>
+      </c>
+      <c r="P41">
+        <v>-2.849399955</v>
+      </c>
+      <c r="Q41">
+        <v>-0.6293999549999998</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08695334978648071</v>
+      </c>
+      <c r="T41">
+        <v>1.645198088696625</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.1981880010812005</v>
+      </c>
+      <c r="W41">
+        <v>0.2201071357986165</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.7927520043248022</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1406273263312137</v>
+      </c>
+      <c r="C42">
+        <v>2.683285165415292</v>
+      </c>
+      <c r="D42">
+        <v>7.605285165415292</v>
+      </c>
+      <c r="E42">
+        <v>10.652</v>
+      </c>
+      <c r="F42">
+        <v>11.832</v>
+      </c>
+      <c r="G42">
+        <v>6.91</v>
+      </c>
+      <c r="H42">
+        <v>28.4</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.54</v>
+      </c>
+      <c r="K42">
+        <v>2.22</v>
+      </c>
+      <c r="L42">
+        <v>-1.68</v>
+      </c>
+      <c r="M42">
+        <v>2.1735384</v>
+      </c>
+      <c r="N42">
+        <v>-3.8535384</v>
+      </c>
+      <c r="O42">
+        <v>-0.9633846</v>
+      </c>
+      <c r="P42">
+        <v>-2.8901538</v>
+      </c>
+      <c r="Q42">
+        <v>-0.6701538</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08824757228292206</v>
+      </c>
+      <c r="T42">
+        <v>1.672618056841569</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.1932333010541705</v>
+      </c>
+      <c r="W42">
+        <v>0.2191969574036511</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.7729332042166819</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1423713263312137</v>
+      </c>
+      <c r="C43">
+        <v>2.287812172786726</v>
+      </c>
+      <c r="D43">
+        <v>7.505612172786726</v>
+      </c>
+      <c r="E43">
+        <v>10.9478</v>
+      </c>
+      <c r="F43">
+        <v>12.1278</v>
+      </c>
+      <c r="G43">
+        <v>6.91</v>
+      </c>
+      <c r="H43">
+        <v>28.4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.54</v>
+      </c>
+      <c r="K43">
+        <v>2.22</v>
+      </c>
+      <c r="L43">
+        <v>-1.68</v>
+      </c>
+      <c r="M43">
+        <v>2.22787686</v>
+      </c>
+      <c r="N43">
+        <v>-3.90787686</v>
+      </c>
+      <c r="O43">
+        <v>-0.9769692150000001</v>
+      </c>
+      <c r="P43">
+        <v>-2.930907645</v>
+      </c>
+      <c r="Q43">
+        <v>-0.7109076450000003</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08958566672839531</v>
+      </c>
+      <c r="T43">
+        <v>1.700967515432104</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.1885202937113858</v>
+      </c>
+      <c r="W43">
+        <v>0.2183311779547816</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.7540811748455434</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1441153263312137</v>
+      </c>
+      <c r="C44">
+        <v>1.894917962613759</v>
+      </c>
+      <c r="D44">
+        <v>7.408517962613758</v>
+      </c>
+      <c r="E44">
+        <v>11.2436</v>
+      </c>
+      <c r="F44">
+        <v>12.4236</v>
+      </c>
+      <c r="G44">
+        <v>6.91</v>
+      </c>
+      <c r="H44">
+        <v>28.4</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.54</v>
+      </c>
+      <c r="K44">
+        <v>2.22</v>
+      </c>
+      <c r="L44">
+        <v>-1.68</v>
+      </c>
+      <c r="M44">
+        <v>2.28221532</v>
+      </c>
+      <c r="N44">
+        <v>-3.96221532</v>
+      </c>
+      <c r="O44">
+        <v>-0.99055383</v>
+      </c>
+      <c r="P44">
+        <v>-2.97166149</v>
+      </c>
+      <c r="Q44">
+        <v>-0.7516614899999996</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.0909699023616435</v>
+      </c>
+      <c r="T44">
+        <v>1.730294541560244</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.1840317152896862</v>
+      </c>
+      <c r="W44">
+        <v>0.2175066260987153</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.7361268611587448</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1458593263312137</v>
+      </c>
+      <c r="C45">
+        <v>1.504503733956389</v>
+      </c>
+      <c r="D45">
+        <v>7.313903733956386</v>
+      </c>
+      <c r="E45">
+        <v>11.5394</v>
+      </c>
+      <c r="F45">
+        <v>12.7194</v>
+      </c>
+      <c r="G45">
+        <v>6.91</v>
+      </c>
+      <c r="H45">
+        <v>28.4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.54</v>
+      </c>
+      <c r="K45">
+        <v>2.22</v>
+      </c>
+      <c r="L45">
+        <v>-1.68</v>
+      </c>
+      <c r="M45">
+        <v>2.33655378</v>
+      </c>
+      <c r="N45">
+        <v>-4.01655378</v>
+      </c>
+      <c r="O45">
+        <v>-1.004138445</v>
+      </c>
+      <c r="P45">
+        <v>-3.012415335</v>
+      </c>
+      <c r="Q45">
+        <v>-0.7924153349999998</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09240270766623375</v>
+      </c>
+      <c r="T45">
+        <v>1.76065058614902</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.1797519079573679</v>
+      </c>
+      <c r="W45">
+        <v>0.2167204254917685</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.7190076318294718</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1476033263312137</v>
+      </c>
+      <c r="C46">
+        <v>1.116475669379886</v>
+      </c>
+      <c r="D46">
+        <v>7.221675669379886</v>
+      </c>
+      <c r="E46">
+        <v>11.8352</v>
+      </c>
+      <c r="F46">
+        <v>13.0152</v>
+      </c>
+      <c r="G46">
+        <v>6.91</v>
+      </c>
+      <c r="H46">
+        <v>28.4</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.54</v>
+      </c>
+      <c r="K46">
+        <v>2.22</v>
+      </c>
+      <c r="L46">
+        <v>-1.68</v>
+      </c>
+      <c r="M46">
+        <v>2.39089224</v>
+      </c>
+      <c r="N46">
+        <v>-4.07089224</v>
+      </c>
+      <c r="O46">
+        <v>-1.01772306</v>
+      </c>
+      <c r="P46">
+        <v>-3.05316918</v>
+      </c>
+      <c r="Q46">
+        <v>-0.8331691800000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09388668458884505</v>
+      </c>
+      <c r="T46">
+        <v>1.792090775187395</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.1756666373219732</v>
+      </c>
+      <c r="W46">
+        <v>0.2159699612760465</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.7026665492878927</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1493473263312137</v>
+      </c>
+      <c r="C47">
+        <v>0.7307446246585325</v>
+      </c>
+      <c r="D47">
+        <v>7.131744624658532</v>
+      </c>
+      <c r="E47">
+        <v>12.131</v>
+      </c>
+      <c r="F47">
+        <v>13.311</v>
+      </c>
+      <c r="G47">
+        <v>6.91</v>
+      </c>
+      <c r="H47">
+        <v>28.4</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.54</v>
+      </c>
+      <c r="K47">
+        <v>2.22</v>
+      </c>
+      <c r="L47">
+        <v>-1.68</v>
+      </c>
+      <c r="M47">
+        <v>2.4452307</v>
+      </c>
+      <c r="N47">
+        <v>-4.1252307</v>
+      </c>
+      <c r="O47">
+        <v>-1.031307675</v>
+      </c>
+      <c r="P47">
+        <v>-3.093923025</v>
+      </c>
+      <c r="Q47">
+        <v>-0.8739230250000003</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09542462430864224</v>
+      </c>
+      <c r="T47">
+        <v>1.824674243827166</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.1717629342703738</v>
+      </c>
+      <c r="W47">
+        <v>0.2152528510254677</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.687051737081495</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1510913263312137</v>
+      </c>
+      <c r="C48">
+        <v>0.3472258413787195</v>
+      </c>
+      <c r="D48">
+        <v>7.04402584137872</v>
+      </c>
+      <c r="E48">
+        <v>12.4268</v>
+      </c>
+      <c r="F48">
+        <v>13.6068</v>
+      </c>
+      <c r="G48">
+        <v>6.91</v>
+      </c>
+      <c r="H48">
+        <v>28.4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.54</v>
+      </c>
+      <c r="K48">
+        <v>2.22</v>
+      </c>
+      <c r="L48">
+        <v>-1.68</v>
+      </c>
+      <c r="M48">
+        <v>2.49956916</v>
+      </c>
+      <c r="N48">
+        <v>-4.17956916</v>
+      </c>
+      <c r="O48">
+        <v>-1.04489229</v>
+      </c>
+      <c r="P48">
+        <v>-3.13467687</v>
+      </c>
+      <c r="Q48">
+        <v>-0.9146768699999996</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09701952475880229</v>
+      </c>
+      <c r="T48">
+        <v>1.858464507601743</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.1680289574384091</v>
+      </c>
+      <c r="W48">
+        <v>0.2145669194814357</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.6721158297536363</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1528353263312137</v>
+      </c>
+      <c r="C49">
+        <v>-0.03416131950609724</v>
+      </c>
+      <c r="D49">
+        <v>6.958438680493902</v>
+      </c>
+      <c r="E49">
+        <v>12.7226</v>
+      </c>
+      <c r="F49">
+        <v>13.9026</v>
+      </c>
+      <c r="G49">
+        <v>6.91</v>
+      </c>
+      <c r="H49">
+        <v>28.4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.54</v>
+      </c>
+      <c r="K49">
+        <v>2.22</v>
+      </c>
+      <c r="L49">
+        <v>-1.68</v>
+      </c>
+      <c r="M49">
+        <v>2.55390762</v>
+      </c>
+      <c r="N49">
+        <v>-4.23390762</v>
+      </c>
+      <c r="O49">
+        <v>-1.058476905</v>
+      </c>
+      <c r="P49">
+        <v>-3.175430715</v>
+      </c>
+      <c r="Q49">
+        <v>-0.9554307149999999</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09867461013160987</v>
+      </c>
+      <c r="T49">
+        <v>1.893529875669701</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.1644538732375919</v>
+      </c>
+      <c r="W49">
+        <v>0.2139101765137456</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.6578154929503677</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1545793263312137</v>
+      </c>
+      <c r="C50">
+        <v>-0.4134936249293357</v>
+      </c>
+      <c r="D50">
+        <v>6.874906375070664</v>
+      </c>
+      <c r="E50">
+        <v>13.0184</v>
+      </c>
+      <c r="F50">
+        <v>14.1984</v>
+      </c>
+      <c r="G50">
+        <v>6.91</v>
+      </c>
+      <c r="H50">
+        <v>28.4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.54</v>
+      </c>
+      <c r="K50">
+        <v>2.22</v>
+      </c>
+      <c r="L50">
+        <v>-1.68</v>
+      </c>
+      <c r="M50">
+        <v>2.60824608</v>
+      </c>
+      <c r="N50">
+        <v>-4.28824608</v>
+      </c>
+      <c r="O50">
+        <v>-1.07206152</v>
+      </c>
+      <c r="P50">
+        <v>-3.21618456</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9961845600000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1003933526341408</v>
+      </c>
+      <c r="T50">
+        <v>1.929943911740272</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.1610277508784754</v>
+      </c>
+      <c r="W50">
+        <v>0.2132807978363759</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.6441110035139019</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1563233263312137</v>
+      </c>
+      <c r="C51">
+        <v>-0.7908441993675215</v>
+      </c>
+      <c r="D51">
+        <v>6.793355800632478</v>
+      </c>
+      <c r="E51">
+        <v>13.3142</v>
+      </c>
+      <c r="F51">
+        <v>14.4942</v>
+      </c>
+      <c r="G51">
+        <v>6.91</v>
+      </c>
+      <c r="H51">
+        <v>28.4</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.54</v>
+      </c>
+      <c r="K51">
+        <v>2.22</v>
+      </c>
+      <c r="L51">
+        <v>-1.68</v>
+      </c>
+      <c r="M51">
+        <v>2.66258454</v>
+      </c>
+      <c r="N51">
+        <v>-4.342584540000001</v>
+      </c>
+      <c r="O51">
+        <v>-1.085646135</v>
+      </c>
+      <c r="P51">
+        <v>-3.256938405000001</v>
+      </c>
+      <c r="Q51">
+        <v>-1.036938405</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1021794968034377</v>
+      </c>
+      <c r="T51">
+        <v>1.967785949225375</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.1577414702483024</v>
+      </c>
+      <c r="W51">
+        <v>0.2126771080846132</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.6309658809932099</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1580673263312136</v>
+      </c>
+      <c r="C52">
+        <v>-1.166282738342977</v>
+      </c>
+      <c r="D52">
+        <v>6.713717261657022</v>
+      </c>
+      <c r="E52">
+        <v>13.61</v>
+      </c>
+      <c r="F52">
+        <v>14.79</v>
+      </c>
+      <c r="G52">
+        <v>6.91</v>
+      </c>
+      <c r="H52">
+        <v>28.4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.54</v>
+      </c>
+      <c r="K52">
+        <v>2.22</v>
+      </c>
+      <c r="L52">
+        <v>-1.68</v>
+      </c>
+      <c r="M52">
+        <v>2.716923</v>
+      </c>
+      <c r="N52">
+        <v>-4.396923</v>
+      </c>
+      <c r="O52">
+        <v>-1.09923075</v>
+      </c>
+      <c r="P52">
+        <v>-3.29769225</v>
+      </c>
+      <c r="Q52">
+        <v>-1.07769225</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1040370867395064</v>
+      </c>
+      <c r="T52">
+        <v>2.007141668209882</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.1545866408433364</v>
+      </c>
+      <c r="W52">
+        <v>0.2120975659229209</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.6183465633733456</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1598113263312137</v>
+      </c>
+      <c r="C53">
+        <v>-1.539875707083176</v>
+      </c>
+      <c r="D53">
+        <v>6.635924292916823</v>
+      </c>
+      <c r="E53">
+        <v>13.9058</v>
+      </c>
+      <c r="F53">
+        <v>15.0858</v>
+      </c>
+      <c r="G53">
+        <v>6.91</v>
+      </c>
+      <c r="H53">
+        <v>28.4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.54</v>
+      </c>
+      <c r="K53">
+        <v>2.22</v>
+      </c>
+      <c r="L53">
+        <v>-1.68</v>
+      </c>
+      <c r="M53">
+        <v>2.77126146</v>
+      </c>
+      <c r="N53">
+        <v>-4.45126146</v>
+      </c>
+      <c r="O53">
+        <v>-1.112815365</v>
+      </c>
+      <c r="P53">
+        <v>-3.338446095</v>
+      </c>
+      <c r="Q53">
+        <v>-1.118446094999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1059704966729658</v>
+      </c>
+      <c r="T53">
+        <v>2.048103743071309</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.1515555302385651</v>
+      </c>
+      <c r="W53">
+        <v>0.2115407509048244</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.6062221209542602</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1615553263312137</v>
+      </c>
+      <c r="C54">
+        <v>-1.911686525526868</v>
+      </c>
+      <c r="D54">
+        <v>6.55991347447313</v>
+      </c>
+      <c r="E54">
+        <v>14.2016</v>
+      </c>
+      <c r="F54">
+        <v>15.3816</v>
+      </c>
+      <c r="G54">
+        <v>6.91</v>
+      </c>
+      <c r="H54">
+        <v>28.4</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.54</v>
+      </c>
+      <c r="K54">
+        <v>2.22</v>
+      </c>
+      <c r="L54">
+        <v>-1.68</v>
+      </c>
+      <c r="M54">
+        <v>2.82559992</v>
+      </c>
+      <c r="N54">
+        <v>-4.50559992</v>
+      </c>
+      <c r="O54">
+        <v>-1.12639998</v>
+      </c>
+      <c r="P54">
+        <v>-3.37919994</v>
+      </c>
+      <c r="Q54">
+        <v>-1.15919994</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1079844653536526</v>
+      </c>
+      <c r="T54">
+        <v>2.090772571051962</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.1486410008109004</v>
+      </c>
+      <c r="W54">
+        <v>0.2110053518489624</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.5945640032436015</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1632993263312137</v>
+      </c>
+      <c r="C55">
+        <v>-2.281775740759381</v>
+      </c>
+      <c r="D55">
+        <v>6.485624259240621</v>
+      </c>
+      <c r="E55">
+        <v>14.4974</v>
+      </c>
+      <c r="F55">
+        <v>15.6774</v>
+      </c>
+      <c r="G55">
+        <v>6.91</v>
+      </c>
+      <c r="H55">
+        <v>28.4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.54</v>
+      </c>
+      <c r="K55">
+        <v>2.22</v>
+      </c>
+      <c r="L55">
+        <v>-1.68</v>
+      </c>
+      <c r="M55">
+        <v>2.87993838</v>
+      </c>
+      <c r="N55">
+        <v>-4.55993838</v>
+      </c>
+      <c r="O55">
+        <v>-1.139984595</v>
+      </c>
+      <c r="P55">
+        <v>-3.419953785</v>
+      </c>
+      <c r="Q55">
+        <v>-1.199953785</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1100841348292622</v>
+      </c>
+      <c r="T55">
+        <v>2.135257093840301</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.145836453625789</v>
+      </c>
+      <c r="W55">
+        <v>0.2104901565310574</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.5833458145031563</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1650433263312137</v>
+      </c>
+      <c r="C56">
+        <v>-2.650201187862399</v>
+      </c>
+      <c r="D56">
+        <v>6.412998812137602</v>
+      </c>
+      <c r="E56">
+        <v>14.7932</v>
+      </c>
+      <c r="F56">
+        <v>15.9732</v>
+      </c>
+      <c r="G56">
+        <v>6.91</v>
+      </c>
+      <c r="H56">
+        <v>28.4</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.54</v>
+      </c>
+      <c r="K56">
+        <v>2.22</v>
+      </c>
+      <c r="L56">
+        <v>-1.68</v>
+      </c>
+      <c r="M56">
+        <v>2.93427684</v>
+      </c>
+      <c r="N56">
+        <v>-4.61427684</v>
+      </c>
+      <c r="O56">
+        <v>-1.15356921</v>
+      </c>
+      <c r="P56">
+        <v>-3.46070763</v>
+      </c>
+      <c r="Q56">
+        <v>-1.24070763</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1122750942820722</v>
+      </c>
+      <c r="T56">
+        <v>2.18167572631509</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.1431357785586448</v>
+      </c>
+      <c r="W56">
+        <v>0.2099940425212231</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.5725431142345794</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1667873263312137</v>
+      </c>
+      <c r="C57">
+        <v>-3.017018140076358</v>
+      </c>
+      <c r="D57">
+        <v>6.341981859923644</v>
+      </c>
+      <c r="E57">
+        <v>15.089</v>
+      </c>
+      <c r="F57">
+        <v>16.269</v>
+      </c>
+      <c r="G57">
+        <v>6.91</v>
+      </c>
+      <c r="H57">
+        <v>28.4</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.54</v>
+      </c>
+      <c r="K57">
+        <v>2.22</v>
+      </c>
+      <c r="L57">
+        <v>-1.68</v>
+      </c>
+      <c r="M57">
+        <v>2.9886153</v>
+      </c>
+      <c r="N57">
+        <v>-4.668615300000001</v>
+      </c>
+      <c r="O57">
+        <v>-1.167153825</v>
+      </c>
+      <c r="P57">
+        <v>-3.501461475000001</v>
+      </c>
+      <c r="Q57">
+        <v>-1.281461475</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1145634297105628</v>
+      </c>
+      <c r="T57">
+        <v>2.230157409122092</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.1405333098575785</v>
+      </c>
+      <c r="W57">
+        <v>0.2095159690208372</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.5621332394303142</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1685313263312137</v>
+      </c>
+      <c r="C58">
+        <v>-3.382279449094789</v>
+      </c>
+      <c r="D58">
+        <v>6.272520550905213</v>
+      </c>
+      <c r="E58">
+        <v>15.3848</v>
+      </c>
+      <c r="F58">
+        <v>16.5648</v>
+      </c>
+      <c r="G58">
+        <v>6.91</v>
+      </c>
+      <c r="H58">
+        <v>28.4</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.54</v>
+      </c>
+      <c r="K58">
+        <v>2.22</v>
+      </c>
+      <c r="L58">
+        <v>-1.68</v>
+      </c>
+      <c r="M58">
+        <v>3.042953760000001</v>
+      </c>
+      <c r="N58">
+        <v>-4.722953760000001</v>
+      </c>
+      <c r="O58">
+        <v>-1.18073844</v>
+      </c>
+      <c r="P58">
+        <v>-3.542215320000001</v>
+      </c>
+      <c r="Q58">
+        <v>-1.322215320000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1169557803858028</v>
+      </c>
+      <c r="T58">
+        <v>2.280842804783958</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.1380237864672646</v>
+      </c>
+      <c r="W58">
+        <v>0.2090549695740365</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.5520951458690586</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1702753263312137</v>
+      </c>
+      <c r="C59">
+        <v>-3.746035676239005</v>
+      </c>
+      <c r="D59">
+        <v>6.204564323760996</v>
+      </c>
+      <c r="E59">
+        <v>15.6806</v>
+      </c>
+      <c r="F59">
+        <v>16.8606</v>
+      </c>
+      <c r="G59">
+        <v>6.91</v>
+      </c>
+      <c r="H59">
+        <v>28.4</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.54</v>
+      </c>
+      <c r="K59">
+        <v>2.22</v>
+      </c>
+      <c r="L59">
+        <v>-1.68</v>
+      </c>
+      <c r="M59">
+        <v>3.09729222</v>
+      </c>
+      <c r="N59">
+        <v>-4.777292220000001</v>
+      </c>
+      <c r="O59">
+        <v>-1.194323055</v>
+      </c>
+      <c r="P59">
+        <v>-3.582969165000001</v>
+      </c>
+      <c r="Q59">
+        <v>-1.362969165</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1194594031854726</v>
+      </c>
+      <c r="T59">
+        <v>2.333885660709166</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.1356023165292424</v>
+      </c>
+      <c r="W59">
+        <v>0.2086101455464218</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.5424092661169697</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1720193263312137</v>
+      </c>
+      <c r="C60">
+        <v>-4.108335215197354</v>
+      </c>
+      <c r="D60">
+        <v>6.138064784802644</v>
+      </c>
+      <c r="E60">
+        <v>15.9764</v>
+      </c>
+      <c r="F60">
+        <v>17.1564</v>
+      </c>
+      <c r="G60">
+        <v>6.91</v>
+      </c>
+      <c r="H60">
+        <v>28.4</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.54</v>
+      </c>
+      <c r="K60">
+        <v>2.22</v>
+      </c>
+      <c r="L60">
+        <v>-1.68</v>
+      </c>
+      <c r="M60">
+        <v>3.15163068</v>
+      </c>
+      <c r="N60">
+        <v>-4.83163068</v>
+      </c>
+      <c r="O60">
+        <v>-1.20790767</v>
+      </c>
+      <c r="P60">
+        <v>-3.62372301</v>
+      </c>
+      <c r="Q60">
+        <v>-1.40372301</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1220822461184601</v>
+      </c>
+      <c r="T60">
+        <v>2.389454366916527</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.1332643455546003</v>
+      </c>
+      <c r="W60">
+        <v>0.2081806602783801</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.5330573822184015</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1737633263312137</v>
+      </c>
+      <c r="C61">
+        <v>-4.46922440695514</v>
+      </c>
+      <c r="D61">
+        <v>6.072975593044857</v>
+      </c>
+      <c r="E61">
+        <v>16.2722</v>
+      </c>
+      <c r="F61">
+        <v>17.4522</v>
+      </c>
+      <c r="G61">
+        <v>6.91</v>
+      </c>
+      <c r="H61">
+        <v>28.4</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.54</v>
+      </c>
+      <c r="K61">
+        <v>2.22</v>
+      </c>
+      <c r="L61">
+        <v>-1.68</v>
+      </c>
+      <c r="M61">
+        <v>3.20596914</v>
+      </c>
+      <c r="N61">
+        <v>-4.88596914</v>
+      </c>
+      <c r="O61">
+        <v>-1.221492285</v>
+      </c>
+      <c r="P61">
+        <v>-3.664476855</v>
+      </c>
+      <c r="Q61">
+        <v>-1.444476855</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1248330326091542</v>
+      </c>
+      <c r="T61">
+        <v>2.447733741719369</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.1310056278333359</v>
+      </c>
+      <c r="W61">
+        <v>0.2077657338329838</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.5240225113333439</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1755073263312137</v>
+      </c>
+      <c r="C62">
+        <v>-4.828747647488861</v>
+      </c>
+      <c r="D62">
+        <v>6.009252352511138</v>
+      </c>
+      <c r="E62">
+        <v>16.568</v>
+      </c>
+      <c r="F62">
+        <v>17.748</v>
+      </c>
+      <c r="G62">
+        <v>6.91</v>
+      </c>
+      <c r="H62">
+        <v>28.4</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.54</v>
+      </c>
+      <c r="K62">
+        <v>2.22</v>
+      </c>
+      <c r="L62">
+        <v>-1.68</v>
+      </c>
+      <c r="M62">
+        <v>3.2603076</v>
+      </c>
+      <c r="N62">
+        <v>-4.9403076</v>
+      </c>
+      <c r="O62">
+        <v>-1.2350769</v>
+      </c>
+      <c r="P62">
+        <v>-3.7052307</v>
+      </c>
+      <c r="Q62">
+        <v>-1.485230699999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1277213584243831</v>
+      </c>
+      <c r="T62">
+        <v>2.508927085262353</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.1288222007027803</v>
+      </c>
+      <c r="W62">
+        <v>0.2073646382691008</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.5152888028111213</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1772513263312137</v>
+      </c>
+      <c r="C63">
+        <v>-5.186947488750675</v>
+      </c>
+      <c r="D63">
+        <v>5.946852511249321</v>
+      </c>
+      <c r="E63">
+        <v>16.8638</v>
+      </c>
+      <c r="F63">
+        <v>18.0438</v>
+      </c>
+      <c r="G63">
+        <v>6.91</v>
+      </c>
+      <c r="H63">
+        <v>28.4</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.54</v>
+      </c>
+      <c r="K63">
+        <v>2.22</v>
+      </c>
+      <c r="L63">
+        <v>-1.68</v>
+      </c>
+      <c r="M63">
+        <v>3.314646059999999</v>
+      </c>
+      <c r="N63">
+        <v>-4.994646059999999</v>
+      </c>
+      <c r="O63">
+        <v>-1.248661515</v>
+      </c>
+      <c r="P63">
+        <v>-3.745984544999999</v>
+      </c>
+      <c r="Q63">
+        <v>-1.525984544999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1307578035121878</v>
+      </c>
+      <c r="T63">
+        <v>2.573258548987029</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.1267103613469971</v>
+      </c>
+      <c r="W63">
+        <v>0.2069766933794434</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.5068414453879881</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1789953263312136</v>
+      </c>
+      <c r="C64">
+        <v>-5.543864733425854</v>
+      </c>
+      <c r="D64">
+        <v>5.885735266574143</v>
+      </c>
+      <c r="E64">
+        <v>17.1596</v>
+      </c>
+      <c r="F64">
+        <v>18.3396</v>
+      </c>
+      <c r="G64">
+        <v>6.91</v>
+      </c>
+      <c r="H64">
+        <v>28.4</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.54</v>
+      </c>
+      <c r="K64">
+        <v>2.22</v>
+      </c>
+      <c r="L64">
+        <v>-1.68</v>
+      </c>
+      <c r="M64">
+        <v>3.36898452</v>
+      </c>
+      <c r="N64">
+        <v>-5.048984519999999</v>
+      </c>
+      <c r="O64">
+        <v>-1.26224613</v>
+      </c>
+      <c r="P64">
+        <v>-3.78673839</v>
+      </c>
+      <c r="Q64">
+        <v>-1.566738389999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1339540614993506</v>
+      </c>
+      <c r="T64">
+        <v>2.64097587922353</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.1246666458414003</v>
+      </c>
+      <c r="W64">
+        <v>0.2066012628410652</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.4986665833656012</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1807393263312137</v>
+      </c>
+      <c r="C65">
+        <v>-5.899538523906543</v>
+      </c>
+      <c r="D65">
+        <v>5.825861476093457</v>
+      </c>
+      <c r="E65">
+        <v>17.4554</v>
+      </c>
+      <c r="F65">
+        <v>18.6354</v>
+      </c>
+      <c r="G65">
+        <v>6.91</v>
+      </c>
+      <c r="H65">
+        <v>28.4</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.54</v>
+      </c>
+      <c r="K65">
+        <v>2.22</v>
+      </c>
+      <c r="L65">
+        <v>-1.68</v>
+      </c>
+      <c r="M65">
+        <v>3.42332298</v>
+      </c>
+      <c r="N65">
+        <v>-5.10332298</v>
+      </c>
+      <c r="O65">
+        <v>-1.275830745</v>
+      </c>
+      <c r="P65">
+        <v>-3.827492235</v>
+      </c>
+      <c r="Q65">
+        <v>-1.607492235</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1373230901885223</v>
+      </c>
+      <c r="T65">
+        <v>2.712353605689031</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.1226878101931241</v>
+      </c>
+      <c r="W65">
+        <v>0.2062377507324769</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.4907512407724963</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1824833263312137</v>
+      </c>
+      <c r="C66">
+        <v>-6.254006425889642</v>
+      </c>
+      <c r="D66">
+        <v>5.767193574110357</v>
+      </c>
+      <c r="E66">
+        <v>17.7512</v>
+      </c>
+      <c r="F66">
+        <v>18.9312</v>
+      </c>
+      <c r="G66">
+        <v>6.91</v>
+      </c>
+      <c r="H66">
+        <v>28.4</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.54</v>
+      </c>
+      <c r="K66">
+        <v>2.22</v>
+      </c>
+      <c r="L66">
+        <v>-1.68</v>
+      </c>
+      <c r="M66">
+        <v>3.47766144</v>
+      </c>
+      <c r="N66">
+        <v>-5.15766144</v>
+      </c>
+      <c r="O66">
+        <v>-1.28941536</v>
+      </c>
+      <c r="P66">
+        <v>-3.86824608</v>
+      </c>
+      <c r="Q66">
+        <v>-1.64824608</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1408792871382034</v>
+      </c>
+      <c r="T66">
+        <v>2.787696761402615</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.1207708131588565</v>
+      </c>
+      <c r="W66">
+        <v>0.2058855983772819</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.4830832526354261</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1842273263312137</v>
+      </c>
+      <c r="C67">
+        <v>-6.607304506973925</v>
+      </c>
+      <c r="D67">
+        <v>5.709695493026075</v>
+      </c>
+      <c r="E67">
+        <v>18.047</v>
+      </c>
+      <c r="F67">
+        <v>19.227</v>
+      </c>
+      <c r="G67">
+        <v>6.91</v>
+      </c>
+      <c r="H67">
+        <v>28.4</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.54</v>
+      </c>
+      <c r="K67">
+        <v>2.22</v>
+      </c>
+      <c r="L67">
+        <v>-1.68</v>
+      </c>
+      <c r="M67">
+        <v>3.5319999</v>
+      </c>
+      <c r="N67">
+        <v>-5.2119999</v>
+      </c>
+      <c r="O67">
+        <v>-1.302999975</v>
+      </c>
+      <c r="P67">
+        <v>-3.908999925</v>
+      </c>
+      <c r="Q67">
+        <v>-1.688999925</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1446386953421521</v>
+      </c>
+      <c r="T67">
+        <v>2.867345240299833</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.1189128006487203</v>
+      </c>
+      <c r="W67">
+        <v>0.2055442814791699</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.4756512025948811</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1859713263312137</v>
+      </c>
+      <c r="C68">
+        <v>-6.959467410601928</v>
+      </c>
+      <c r="D68">
+        <v>5.653332589398072</v>
+      </c>
+      <c r="E68">
+        <v>18.3428</v>
+      </c>
+      <c r="F68">
+        <v>19.5228</v>
+      </c>
+      <c r="G68">
+        <v>6.91</v>
+      </c>
+      <c r="H68">
+        <v>28.4</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.54</v>
+      </c>
+      <c r="K68">
+        <v>2.22</v>
+      </c>
+      <c r="L68">
+        <v>-1.68</v>
+      </c>
+      <c r="M68">
+        <v>3.58633836</v>
+      </c>
+      <c r="N68">
+        <v>-5.266338360000001</v>
+      </c>
+      <c r="O68">
+        <v>-1.31658459</v>
+      </c>
+      <c r="P68">
+        <v>-3.94975377</v>
+      </c>
+      <c r="Q68">
+        <v>-1.72975377</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1486192452051566</v>
+      </c>
+      <c r="T68">
+        <v>2.951678923838063</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.1171110915479821</v>
+      </c>
+      <c r="W68">
+        <v>0.2052133075173643</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.4684443661919286</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1877153263312137</v>
+      </c>
+      <c r="C69">
+        <v>-7.310528425665215</v>
+      </c>
+      <c r="D69">
+        <v>5.598071574334786</v>
+      </c>
+      <c r="E69">
+        <v>18.6386</v>
+      </c>
+      <c r="F69">
+        <v>19.8186</v>
+      </c>
+      <c r="G69">
+        <v>6.91</v>
+      </c>
+      <c r="H69">
+        <v>28.4</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.54</v>
+      </c>
+      <c r="K69">
+        <v>2.22</v>
+      </c>
+      <c r="L69">
+        <v>-1.68</v>
+      </c>
+      <c r="M69">
+        <v>3.64067682</v>
+      </c>
+      <c r="N69">
+        <v>-5.32067682</v>
+      </c>
+      <c r="O69">
+        <v>-1.330169205</v>
+      </c>
+      <c r="P69">
+        <v>-3.990507615</v>
+      </c>
+      <c r="Q69">
+        <v>-1.770507615</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1528410405144038</v>
+      </c>
+      <c r="T69">
+        <v>3.041123739711944</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.11536316480846</v>
+      </c>
+      <c r="W69">
+        <v>0.2048922133753141</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.4614526592338399</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1894593263312137</v>
+      </c>
+      <c r="C70">
+        <v>-7.6605195520668</v>
+      </c>
+      <c r="D70">
+        <v>5.5438804479332</v>
+      </c>
+      <c r="E70">
+        <v>18.9344</v>
+      </c>
+      <c r="F70">
+        <v>20.1144</v>
+      </c>
+      <c r="G70">
+        <v>6.91</v>
+      </c>
+      <c r="H70">
+        <v>28.4</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.54</v>
+      </c>
+      <c r="K70">
+        <v>2.22</v>
+      </c>
+      <c r="L70">
+        <v>-1.68</v>
+      </c>
+      <c r="M70">
+        <v>3.69501528</v>
+      </c>
+      <c r="N70">
+        <v>-5.37501528</v>
+      </c>
+      <c r="O70">
+        <v>-1.34375382</v>
+      </c>
+      <c r="P70">
+        <v>-4.031261460000001</v>
+      </c>
+      <c r="Q70">
+        <v>-1.81126146</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1573266980304789</v>
+      </c>
+      <c r="T70">
+        <v>3.136158856577942</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.1136666476789238</v>
+      </c>
+      <c r="W70">
+        <v>0.2045805631786183</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.4546665907156953</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1912033263312137</v>
+      </c>
+      <c r="C71">
+        <v>-8.009471562512124</v>
+      </c>
+      <c r="D71">
+        <v>5.490728437487876</v>
+      </c>
+      <c r="E71">
+        <v>19.2302</v>
+      </c>
+      <c r="F71">
+        <v>20.4102</v>
+      </c>
+      <c r="G71">
+        <v>6.91</v>
+      </c>
+      <c r="H71">
+        <v>28.4</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.54</v>
+      </c>
+      <c r="K71">
+        <v>2.22</v>
+      </c>
+      <c r="L71">
+        <v>-1.68</v>
+      </c>
+      <c r="M71">
+        <v>3.74935374</v>
+      </c>
+      <c r="N71">
+        <v>-5.42935374</v>
+      </c>
+      <c r="O71">
+        <v>-1.357338435</v>
+      </c>
+      <c r="P71">
+        <v>-4.072015305</v>
+      </c>
+      <c r="Q71">
+        <v>-1.852015305</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1621017528056556</v>
+      </c>
+      <c r="T71">
+        <v>3.237325271306263</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.1120193049589394</v>
+      </c>
+      <c r="W71">
+        <v>0.2042779463209572</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.4480772198357574</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1929473263312137</v>
+      </c>
+      <c r="C72">
+        <v>-8.357414060779199</v>
+      </c>
+      <c r="D72">
+        <v>5.4385859392208</v>
+      </c>
+      <c r="E72">
+        <v>19.526</v>
+      </c>
+      <c r="F72">
+        <v>20.706</v>
+      </c>
+      <c r="G72">
+        <v>6.91</v>
+      </c>
+      <c r="H72">
+        <v>28.4</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.54</v>
+      </c>
+      <c r="K72">
+        <v>2.22</v>
+      </c>
+      <c r="L72">
+        <v>-1.68</v>
+      </c>
+      <c r="M72">
+        <v>3.8036922</v>
+      </c>
+      <c r="N72">
+        <v>-5.4836922</v>
+      </c>
+      <c r="O72">
+        <v>-1.37092305</v>
+      </c>
+      <c r="P72">
+        <v>-4.11276915</v>
+      </c>
+      <c r="Q72">
+        <v>-1.89276915</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1671951445658441</v>
+      </c>
+      <c r="T72">
+        <v>3.345236113683138</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.1104190291738117</v>
+      </c>
+      <c r="W72">
+        <v>0.2039839756592292</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.4416761166952468</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1946913263312137</v>
+      </c>
+      <c r="C73">
+        <v>-8.704375536699899</v>
+      </c>
+      <c r="D73">
+        <v>5.3874244633001</v>
+      </c>
+      <c r="E73">
+        <v>19.8218</v>
+      </c>
+      <c r="F73">
+        <v>21.0018</v>
+      </c>
+      <c r="G73">
+        <v>6.91</v>
+      </c>
+      <c r="H73">
+        <v>28.4</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.54</v>
+      </c>
+      <c r="K73">
+        <v>2.22</v>
+      </c>
+      <c r="L73">
+        <v>-1.68</v>
+      </c>
+      <c r="M73">
+        <v>3.85803066</v>
+      </c>
+      <c r="N73">
+        <v>-5.53803066</v>
+      </c>
+      <c r="O73">
+        <v>-1.384507665</v>
+      </c>
+      <c r="P73">
+        <v>-4.153522995</v>
+      </c>
+      <c r="Q73">
+        <v>-1.933522995</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.172639804723287</v>
+      </c>
+      <c r="T73">
+        <v>3.460589083120487</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.1088638315798144</v>
+      </c>
+      <c r="W73">
+        <v>0.2036982858612119</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.4354553263192575</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1964353263312137</v>
+      </c>
+      <c r="C74">
+        <v>-9.050383418066808</v>
+      </c>
+      <c r="D74">
+        <v>5.33721658193319</v>
+      </c>
+      <c r="E74">
+        <v>20.1176</v>
+      </c>
+      <c r="F74">
+        <v>21.2976</v>
+      </c>
+      <c r="G74">
+        <v>6.91</v>
+      </c>
+      <c r="H74">
+        <v>28.4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.54</v>
+      </c>
+      <c r="K74">
+        <v>2.22</v>
+      </c>
+      <c r="L74">
+        <v>-1.68</v>
+      </c>
+      <c r="M74">
+        <v>3.91236912</v>
+      </c>
+      <c r="N74">
+        <v>-5.59236912</v>
+      </c>
+      <c r="O74">
+        <v>-1.39809228</v>
+      </c>
+      <c r="P74">
+        <v>-4.19427684</v>
+      </c>
+      <c r="Q74">
+        <v>-1.974276839999999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1784733691776901</v>
+      </c>
+      <c r="T74">
+        <v>3.58418155037479</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.1073518339189836</v>
+      </c>
+      <c r="W74">
+        <v>0.2034205318909173</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.4294073356759345</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1981793263312137</v>
+      </c>
+      <c r="C75">
+        <v>-9.395464119664444</v>
+      </c>
+      <c r="D75">
+        <v>5.287935880335555</v>
+      </c>
+      <c r="E75">
+        <v>20.4134</v>
+      </c>
+      <c r="F75">
+        <v>21.5934</v>
+      </c>
+      <c r="G75">
+        <v>6.91</v>
+      </c>
+      <c r="H75">
+        <v>28.4</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.54</v>
+      </c>
+      <c r="K75">
+        <v>2.22</v>
+      </c>
+      <c r="L75">
+        <v>-1.68</v>
+      </c>
+      <c r="M75">
+        <v>3.96670758</v>
+      </c>
+      <c r="N75">
+        <v>-5.64670758</v>
+      </c>
+      <c r="O75">
+        <v>-1.411676895</v>
+      </c>
+      <c r="P75">
+        <v>-4.235030685</v>
+      </c>
+      <c r="Q75">
+        <v>-2.015030685</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1847390495176045</v>
+      </c>
+      <c r="T75">
+        <v>3.716929015203486</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.1058812608516003</v>
+      </c>
+      <c r="W75">
+        <v>0.203150387618439</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.4235250434064011</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1999233263312137</v>
+      </c>
+      <c r="C76">
+        <v>-9.739643089608981</v>
+      </c>
+      <c r="D76">
+        <v>5.239556910391018</v>
+      </c>
+      <c r="E76">
+        <v>20.7092</v>
+      </c>
+      <c r="F76">
+        <v>21.8892</v>
+      </c>
+      <c r="G76">
+        <v>6.91</v>
+      </c>
+      <c r="H76">
+        <v>28.4</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.54</v>
+      </c>
+      <c r="K76">
+        <v>2.22</v>
+      </c>
+      <c r="L76">
+        <v>-1.68</v>
+      </c>
+      <c r="M76">
+        <v>4.02104604</v>
+      </c>
+      <c r="N76">
+        <v>-5.70104604</v>
+      </c>
+      <c r="O76">
+        <v>-1.42526151</v>
+      </c>
+      <c r="P76">
+        <v>-4.275784529999999</v>
+      </c>
+      <c r="Q76">
+        <v>-2.055784529999999</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1914867052682817</v>
+      </c>
+      <c r="T76">
+        <v>3.859887823480544</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.1044504330022543</v>
+      </c>
+      <c r="W76">
+        <v>0.2028875445425141</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.4178017320090173</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2016673263312136</v>
+      </c>
+      <c r="C77">
+        <v>-10.08294485316725</v>
+      </c>
+      <c r="D77">
+        <v>5.192055146832748</v>
+      </c>
+      <c r="E77">
+        <v>21.005</v>
+      </c>
+      <c r="F77">
+        <v>22.185</v>
+      </c>
+      <c r="G77">
+        <v>6.91</v>
+      </c>
+      <c r="H77">
+        <v>28.4</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.54</v>
+      </c>
+      <c r="K77">
+        <v>2.22</v>
+      </c>
+      <c r="L77">
+        <v>-1.68</v>
+      </c>
+      <c r="M77">
+        <v>4.0753845</v>
+      </c>
+      <c r="N77">
+        <v>-5.7553845</v>
+      </c>
+      <c r="O77">
+        <v>-1.438846125</v>
+      </c>
+      <c r="P77">
+        <v>-4.316538375</v>
+      </c>
+      <c r="Q77">
+        <v>-2.096538375</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1987741734790129</v>
+      </c>
+      <c r="T77">
+        <v>4.014283336419765</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.1030577605622243</v>
+      </c>
+      <c r="W77">
+        <v>0.2026317106152806</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.4122310422488968</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2034113263312137</v>
+      </c>
+      <c r="C78">
+        <v>-10.42539305421362</v>
+      </c>
+      <c r="D78">
+        <v>5.145406945786376</v>
+      </c>
+      <c r="E78">
+        <v>21.3008</v>
+      </c>
+      <c r="F78">
+        <v>22.4808</v>
+      </c>
+      <c r="G78">
+        <v>6.91</v>
+      </c>
+      <c r="H78">
+        <v>28.4</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.54</v>
+      </c>
+      <c r="K78">
+        <v>2.22</v>
+      </c>
+      <c r="L78">
+        <v>-1.68</v>
+      </c>
+      <c r="M78">
+        <v>4.12972296</v>
+      </c>
+      <c r="N78">
+        <v>-5.80972296</v>
+      </c>
+      <c r="O78">
+        <v>-1.45243074</v>
+      </c>
+      <c r="P78">
+        <v>-4.35729222</v>
+      </c>
+      <c r="Q78">
+        <v>-2.13729222</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2066689307073051</v>
+      </c>
+      <c r="T78">
+        <v>4.181545142103922</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.1017017373969318</v>
+      </c>
+      <c r="W78">
+        <v>0.2023826091598164</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.4068069495877276</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2051553263312136</v>
+      </c>
+      <c r="C79">
+        <v>-10.76701049447193</v>
+      </c>
+      <c r="D79">
+        <v>5.09958950552807</v>
+      </c>
+      <c r="E79">
+        <v>21.5966</v>
+      </c>
+      <c r="F79">
+        <v>22.7766</v>
+      </c>
+      <c r="G79">
+        <v>6.91</v>
+      </c>
+      <c r="H79">
+        <v>28.4</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.54</v>
+      </c>
+      <c r="K79">
+        <v>2.22</v>
+      </c>
+      <c r="L79">
+        <v>-1.68</v>
+      </c>
+      <c r="M79">
+        <v>4.18406142</v>
+      </c>
+      <c r="N79">
+        <v>-5.864061420000001</v>
+      </c>
+      <c r="O79">
+        <v>-1.466015355</v>
+      </c>
+      <c r="P79">
+        <v>-4.398046065000001</v>
+      </c>
+      <c r="Q79">
+        <v>-2.178046065000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2152501885641445</v>
+      </c>
+      <c r="T79">
+        <v>4.363351452630179</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.1003809356125561</v>
+      </c>
+      <c r="W79">
+        <v>0.2021399778720265</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.4015237424502245</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2068993263312137</v>
+      </c>
+      <c r="C80">
+        <v>-11.10781917067933</v>
+      </c>
+      <c r="D80">
+        <v>5.054580829320671</v>
+      </c>
+      <c r="E80">
+        <v>21.8924</v>
+      </c>
+      <c r="F80">
+        <v>23.0724</v>
+      </c>
+      <c r="G80">
+        <v>6.91</v>
+      </c>
+      <c r="H80">
+        <v>28.4</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.54</v>
+      </c>
+      <c r="K80">
+        <v>2.22</v>
+      </c>
+      <c r="L80">
+        <v>-1.68</v>
+      </c>
+      <c r="M80">
+        <v>4.238399879999999</v>
+      </c>
+      <c r="N80">
+        <v>-5.918399879999999</v>
+      </c>
+      <c r="O80">
+        <v>-1.47959997</v>
+      </c>
+      <c r="P80">
+        <v>-4.438799909999999</v>
+      </c>
+      <c r="Q80">
+        <v>-2.218799909999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2246115607716056</v>
+      </c>
+      <c r="T80">
+        <v>4.561685609567915</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.09909400054060026</v>
+      </c>
+      <c r="W80">
+        <v>0.2019035678993083</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.396376002162401</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2086433263312137</v>
+      </c>
+      <c r="C81">
+        <v>-11.44784030979932</v>
+      </c>
+      <c r="D81">
+        <v>5.010359690200678</v>
+      </c>
+      <c r="E81">
+        <v>22.1882</v>
+      </c>
+      <c r="F81">
+        <v>23.3682</v>
+      </c>
+      <c r="G81">
+        <v>6.91</v>
+      </c>
+      <c r="H81">
+        <v>28.4</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.54</v>
+      </c>
+      <c r="K81">
+        <v>2.22</v>
+      </c>
+      <c r="L81">
+        <v>-1.68</v>
+      </c>
+      <c r="M81">
+        <v>4.29273834</v>
+      </c>
+      <c r="N81">
+        <v>-5.972738339999999</v>
+      </c>
+      <c r="O81">
+        <v>-1.493184585</v>
+      </c>
+      <c r="P81">
+        <v>-4.479553755</v>
+      </c>
+      <c r="Q81">
+        <v>-2.259553754999999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2348644922369202</v>
+      </c>
+      <c r="T81">
+        <v>4.778908733833055</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.09783964610337748</v>
+      </c>
+      <c r="W81">
+        <v>0.2016731429891905</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.3913585844135097</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2103873263312137</v>
+      </c>
+      <c r="C82">
+        <v>-11.78709440240244</v>
+      </c>
+      <c r="D82">
+        <v>4.96690559759756</v>
+      </c>
+      <c r="E82">
+        <v>22.484</v>
+      </c>
+      <c r="F82">
+        <v>23.664</v>
+      </c>
+      <c r="G82">
+        <v>6.91</v>
+      </c>
+      <c r="H82">
+        <v>28.4</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.54</v>
+      </c>
+      <c r="K82">
+        <v>2.22</v>
+      </c>
+      <c r="L82">
+        <v>-1.68</v>
+      </c>
+      <c r="M82">
+        <v>4.3470768</v>
+      </c>
+      <c r="N82">
+        <v>-6.0270768</v>
+      </c>
+      <c r="O82">
+        <v>-1.5067692</v>
+      </c>
+      <c r="P82">
+        <v>-4.5203076</v>
+      </c>
+      <c r="Q82">
+        <v>-2.3003076</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2461427168487662</v>
+      </c>
+      <c r="T82">
+        <v>5.017854170524708</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.09661665052708525</v>
+      </c>
+      <c r="W82">
+        <v>0.2014484787018256</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.3864666021083409</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2121313263312137</v>
+      </c>
+      <c r="C83">
+        <v>-12.12560123432477</v>
+      </c>
+      <c r="D83">
+        <v>4.924198765675232</v>
+      </c>
+      <c r="E83">
+        <v>22.7798</v>
+      </c>
+      <c r="F83">
+        <v>23.9598</v>
+      </c>
+      <c r="G83">
+        <v>6.91</v>
+      </c>
+      <c r="H83">
+        <v>28.4</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.54</v>
+      </c>
+      <c r="K83">
+        <v>2.22</v>
+      </c>
+      <c r="L83">
+        <v>-1.68</v>
+      </c>
+      <c r="M83">
+        <v>4.40141526</v>
+      </c>
+      <c r="N83">
+        <v>-6.08141526</v>
+      </c>
+      <c r="O83">
+        <v>-1.520353815</v>
+      </c>
+      <c r="P83">
+        <v>-4.561061445</v>
+      </c>
+      <c r="Q83">
+        <v>-2.341061445</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2586081229987013</v>
+      </c>
+      <c r="T83">
+        <v>5.281951758447061</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.09542385237242987</v>
+      </c>
+      <c r="W83">
+        <v>0.2012293616808153</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.3816954094897194</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2138753263312137</v>
+      </c>
+      <c r="C84">
+        <v>-12.46337991670719</v>
+      </c>
+      <c r="D84">
+        <v>4.882220083292815</v>
+      </c>
+      <c r="E84">
+        <v>23.0756</v>
+      </c>
+      <c r="F84">
+        <v>24.2556</v>
+      </c>
+      <c r="G84">
+        <v>6.91</v>
+      </c>
+      <c r="H84">
+        <v>28.4</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.54</v>
+      </c>
+      <c r="K84">
+        <v>2.22</v>
+      </c>
+      <c r="L84">
+        <v>-1.68</v>
+      </c>
+      <c r="M84">
+        <v>4.455753720000001</v>
+      </c>
+      <c r="N84">
+        <v>-6.13575372</v>
+      </c>
+      <c r="O84">
+        <v>-1.53393843</v>
+      </c>
+      <c r="P84">
+        <v>-4.60181529</v>
+      </c>
+      <c r="Q84">
+        <v>-2.38181529</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2724585742764069</v>
+      </c>
+      <c r="T84">
+        <v>5.575393522805231</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.09426014685569291</v>
+      </c>
+      <c r="W84">
+        <v>0.2010155889773908</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.3770405874227716</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2156193263312137</v>
+      </c>
+      <c r="C85">
+        <v>-12.80044891451108</v>
+      </c>
+      <c r="D85">
+        <v>4.840951085488925</v>
+      </c>
+      <c r="E85">
+        <v>23.3714</v>
+      </c>
+      <c r="F85">
+        <v>24.5514</v>
+      </c>
+      <c r="G85">
+        <v>6.91</v>
+      </c>
+      <c r="H85">
+        <v>28.4</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.54</v>
+      </c>
+      <c r="K85">
+        <v>2.22</v>
+      </c>
+      <c r="L85">
+        <v>-1.68</v>
+      </c>
+      <c r="M85">
+        <v>4.51009218</v>
+      </c>
+      <c r="N85">
+        <v>-6.190092180000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.547523045</v>
+      </c>
+      <c r="P85">
+        <v>-4.642569135</v>
+      </c>
+      <c r="Q85">
+        <v>-2.422569135</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2879384904103132</v>
+      </c>
+      <c r="T85">
+        <v>5.903357847676128</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.09312448243574481</v>
+      </c>
+      <c r="W85">
+        <v>0.2008069674234463</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.3724979297429794</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2173633263312137</v>
+      </c>
+      <c r="C86">
+        <v>-13.1368260735999</v>
+      </c>
+      <c r="D86">
+        <v>4.800373926400097</v>
+      </c>
+      <c r="E86">
+        <v>23.6672</v>
+      </c>
+      <c r="F86">
+        <v>24.8472</v>
+      </c>
+      <c r="G86">
+        <v>6.91</v>
+      </c>
+      <c r="H86">
+        <v>28.4</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.54</v>
+      </c>
+      <c r="K86">
+        <v>2.22</v>
+      </c>
+      <c r="L86">
+        <v>-1.68</v>
+      </c>
+      <c r="M86">
+        <v>4.564430639999999</v>
+      </c>
+      <c r="N86">
+        <v>-6.244430639999999</v>
+      </c>
+      <c r="O86">
+        <v>-1.56110766</v>
+      </c>
+      <c r="P86">
+        <v>-4.68332298</v>
+      </c>
+      <c r="Q86">
+        <v>-2.46332298</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3053533960609576</v>
+      </c>
+      <c r="T86">
+        <v>6.272317713155882</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.0920158576448431</v>
+      </c>
+      <c r="W86">
+        <v>0.2006033130493577</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.3680634305793724</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2191073263312137</v>
+      </c>
+      <c r="C87">
+        <v>-13.47252864647015</v>
+      </c>
+      <c r="D87">
+        <v>4.760471353529852</v>
+      </c>
+      <c r="E87">
+        <v>23.963</v>
+      </c>
+      <c r="F87">
+        <v>25.143</v>
+      </c>
+      <c r="G87">
+        <v>6.91</v>
+      </c>
+      <c r="H87">
+        <v>28.4</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.54</v>
+      </c>
+      <c r="K87">
+        <v>2.22</v>
+      </c>
+      <c r="L87">
+        <v>-1.68</v>
+      </c>
+      <c r="M87">
+        <v>4.6187691</v>
+      </c>
+      <c r="N87">
+        <v>-6.298769099999999</v>
+      </c>
+      <c r="O87">
+        <v>-1.574692275</v>
+      </c>
+      <c r="P87">
+        <v>-4.724076824999999</v>
+      </c>
+      <c r="Q87">
+        <v>-2.504076824999999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3250902891316881</v>
+      </c>
+      <c r="T87">
+        <v>6.690472227366275</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.09093331814313906</v>
+      </c>
+      <c r="W87">
+        <v>0.2004044505428947</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.3637332725725562</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2208513263312137</v>
+      </c>
+      <c r="C88">
+        <v>-13.80757331670945</v>
+      </c>
+      <c r="D88">
+        <v>4.721226683290548</v>
+      </c>
+      <c r="E88">
+        <v>24.2588</v>
+      </c>
+      <c r="F88">
+        <v>25.4388</v>
+      </c>
+      <c r="G88">
+        <v>6.91</v>
+      </c>
+      <c r="H88">
+        <v>28.4</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.54</v>
+      </c>
+      <c r="K88">
+        <v>2.22</v>
+      </c>
+      <c r="L88">
+        <v>-1.68</v>
+      </c>
+      <c r="M88">
+        <v>4.673107559999999</v>
+      </c>
+      <c r="N88">
+        <v>-6.35310756</v>
+      </c>
+      <c r="O88">
+        <v>-1.58827689</v>
+      </c>
+      <c r="P88">
+        <v>-4.76483067</v>
+      </c>
+      <c r="Q88">
+        <v>-2.54483067</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3476467383553802</v>
+      </c>
+      <c r="T88">
+        <v>7.16836310074958</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.08987595397868396</v>
+      </c>
+      <c r="W88">
+        <v>0.2002102127458842</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.3595038159147359</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2225953263312136</v>
+      </c>
+      <c r="C89">
+        <v>-14.14197622225494</v>
+      </c>
+      <c r="D89">
+        <v>4.682623777745058</v>
+      </c>
+      <c r="E89">
+        <v>24.5546</v>
+      </c>
+      <c r="F89">
+        <v>25.7346</v>
+      </c>
+      <c r="G89">
+        <v>6.91</v>
+      </c>
+      <c r="H89">
+        <v>28.4</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.54</v>
+      </c>
+      <c r="K89">
+        <v>2.22</v>
+      </c>
+      <c r="L89">
+        <v>-1.68</v>
+      </c>
+      <c r="M89">
+        <v>4.727446019999999</v>
+      </c>
+      <c r="N89">
+        <v>-6.40744602</v>
+      </c>
+      <c r="O89">
+        <v>-1.601861505</v>
+      </c>
+      <c r="P89">
+        <v>-4.805584515</v>
+      </c>
+      <c r="Q89">
+        <v>-2.585584514999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3736734105365632</v>
+      </c>
+      <c r="T89">
+        <v>7.719775646961086</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.08884289703640023</v>
+      </c>
+      <c r="W89">
+        <v>0.2000204401855867</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.355371588145601</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2243393263312137</v>
+      </c>
+      <c r="C90">
+        <v>-14.47575297751974</v>
+      </c>
+      <c r="D90">
+        <v>4.644647022480259</v>
+      </c>
+      <c r="E90">
+        <v>24.8504</v>
+      </c>
+      <c r="F90">
+        <v>26.0304</v>
+      </c>
+      <c r="G90">
+        <v>6.91</v>
+      </c>
+      <c r="H90">
+        <v>28.4</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.54</v>
+      </c>
+      <c r="K90">
+        <v>2.22</v>
+      </c>
+      <c r="L90">
+        <v>-1.68</v>
+      </c>
+      <c r="M90">
+        <v>4.78178448</v>
+      </c>
+      <c r="N90">
+        <v>-6.46178448</v>
+      </c>
+      <c r="O90">
+        <v>-1.61544612</v>
+      </c>
+      <c r="P90">
+        <v>-4.846338360000001</v>
+      </c>
+      <c r="Q90">
+        <v>-2.626338360000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4040378614146102</v>
+      </c>
+      <c r="T90">
+        <v>8.363090284207845</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.08783331866098659</v>
+      </c>
+      <c r="W90">
+        <v>0.1998349806380232</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.3513332746439464</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2260833263312137</v>
+      </c>
+      <c r="C91">
+        <v>-14.80891869445145</v>
+      </c>
+      <c r="D91">
+        <v>4.607281305548555</v>
+      </c>
+      <c r="E91">
+        <v>25.1462</v>
+      </c>
+      <c r="F91">
+        <v>26.3262</v>
+      </c>
+      <c r="G91">
+        <v>6.91</v>
+      </c>
+      <c r="H91">
+        <v>28.4</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.54</v>
+      </c>
+      <c r="K91">
+        <v>2.22</v>
+      </c>
+      <c r="L91">
+        <v>-1.68</v>
+      </c>
+      <c r="M91">
+        <v>4.83612294</v>
+      </c>
+      <c r="N91">
+        <v>-6.516122940000001</v>
+      </c>
+      <c r="O91">
+        <v>-1.629030735</v>
+      </c>
+      <c r="P91">
+        <v>-4.887092205</v>
+      </c>
+      <c r="Q91">
+        <v>-2.667092205</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4399231215432112</v>
+      </c>
+      <c r="T91">
+        <v>9.12337121913583</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.08684642744007662</v>
+      </c>
+      <c r="W91">
+        <v>0.1996536887207421</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.3473857097603066</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2278273263312137</v>
+      </c>
+      <c r="C92">
+        <v>-15.14148800258227</v>
+      </c>
+      <c r="D92">
+        <v>4.570511997417731</v>
+      </c>
+      <c r="E92">
+        <v>25.442</v>
+      </c>
+      <c r="F92">
+        <v>26.622</v>
+      </c>
+      <c r="G92">
+        <v>6.91</v>
+      </c>
+      <c r="H92">
+        <v>28.4</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.54</v>
+      </c>
+      <c r="K92">
+        <v>2.22</v>
+      </c>
+      <c r="L92">
+        <v>-1.68</v>
+      </c>
+      <c r="M92">
+        <v>4.8904614</v>
+      </c>
+      <c r="N92">
+        <v>-6.570461400000001</v>
+      </c>
+      <c r="O92">
+        <v>-1.64261535</v>
+      </c>
+      <c r="P92">
+        <v>-4.927846050000001</v>
+      </c>
+      <c r="Q92">
+        <v>-2.707846050000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4829854336975323</v>
+      </c>
+      <c r="T92">
+        <v>10.03570834104941</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.08588146713518688</v>
+      </c>
+      <c r="W92">
+        <v>0.1994764255127338</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.3435258685407476</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2295713263312137</v>
+      </c>
+      <c r="C93">
+        <v>-15.47347506812665</v>
+      </c>
+      <c r="D93">
+        <v>4.534324931873349</v>
+      </c>
+      <c r="E93">
+        <v>25.7378</v>
+      </c>
+      <c r="F93">
+        <v>26.9178</v>
+      </c>
+      <c r="G93">
+        <v>6.91</v>
+      </c>
+      <c r="H93">
+        <v>28.4</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.54</v>
+      </c>
+      <c r="K93">
+        <v>2.22</v>
+      </c>
+      <c r="L93">
+        <v>-1.68</v>
+      </c>
+      <c r="M93">
+        <v>4.94479986</v>
+      </c>
+      <c r="N93">
+        <v>-6.62479986</v>
+      </c>
+      <c r="O93">
+        <v>-1.656199965</v>
+      </c>
+      <c r="P93">
+        <v>-4.968599895</v>
+      </c>
+      <c r="Q93">
+        <v>-2.748599894999999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5356171485528138</v>
+      </c>
+      <c r="T93">
+        <v>11.15078704561046</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.08493771474908593</v>
+      </c>
+      <c r="W93">
+        <v>0.1993030581994071</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.3397508589963436</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2313153263312137</v>
+      </c>
+      <c r="C94">
+        <v>-15.80489361217883</v>
+      </c>
+      <c r="D94">
+        <v>4.498706387821169</v>
+      </c>
+      <c r="E94">
+        <v>26.0336</v>
+      </c>
+      <c r="F94">
+        <v>27.2136</v>
+      </c>
+      <c r="G94">
+        <v>6.91</v>
+      </c>
+      <c r="H94">
+        <v>28.4</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.54</v>
+      </c>
+      <c r="K94">
+        <v>2.22</v>
+      </c>
+      <c r="L94">
+        <v>-1.68</v>
+      </c>
+      <c r="M94">
+        <v>4.99913832</v>
+      </c>
+      <c r="N94">
+        <v>-6.67913832</v>
+      </c>
+      <c r="O94">
+        <v>-1.66978458</v>
+      </c>
+      <c r="P94">
+        <v>-5.00935374</v>
+      </c>
+      <c r="Q94">
+        <v>-2.78935374</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6014067921219156</v>
+      </c>
+      <c r="T94">
+        <v>12.54463542631177</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.08401447871920456</v>
+      </c>
+      <c r="W94">
+        <v>0.1991334597407179</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.3360579148768181</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2330593263312137</v>
+      </c>
+      <c r="C95">
+        <v>-16.13575692805933</v>
+      </c>
+      <c r="D95">
+        <v>4.463643071940665</v>
+      </c>
+      <c r="E95">
+        <v>26.3294</v>
+      </c>
+      <c r="F95">
+        <v>27.5094</v>
+      </c>
+      <c r="G95">
+        <v>6.91</v>
+      </c>
+      <c r="H95">
+        <v>28.4</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.54</v>
+      </c>
+      <c r="K95">
+        <v>2.22</v>
+      </c>
+      <c r="L95">
+        <v>-1.68</v>
+      </c>
+      <c r="M95">
+        <v>5.05347678</v>
+      </c>
+      <c r="N95">
+        <v>-6.73347678</v>
+      </c>
+      <c r="O95">
+        <v>-1.683369195</v>
+      </c>
+      <c r="P95">
+        <v>-5.050107585</v>
+      </c>
+      <c r="Q95">
+        <v>-2.830107585</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6859934767107608</v>
+      </c>
+      <c r="T95">
+        <v>14.33672620149917</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.08311109722760021</v>
+      </c>
+      <c r="W95">
+        <v>0.1989675085607101</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.332444388910401</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2348033263312137</v>
+      </c>
+      <c r="C96">
+        <v>-16.46607789785661</v>
+      </c>
+      <c r="D96">
+        <v>4.429122102143391</v>
+      </c>
+      <c r="E96">
+        <v>26.6252</v>
+      </c>
+      <c r="F96">
+        <v>27.8052</v>
+      </c>
+      <c r="G96">
+        <v>6.91</v>
+      </c>
+      <c r="H96">
+        <v>28.4</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.54</v>
+      </c>
+      <c r="K96">
+        <v>2.22</v>
+      </c>
+      <c r="L96">
+        <v>-1.68</v>
+      </c>
+      <c r="M96">
+        <v>5.10781524</v>
+      </c>
+      <c r="N96">
+        <v>-6.78781524</v>
+      </c>
+      <c r="O96">
+        <v>-1.69695381</v>
+      </c>
+      <c r="P96">
+        <v>-5.09086143</v>
+      </c>
+      <c r="Q96">
+        <v>-2.87086143</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7987757228292213</v>
+      </c>
+      <c r="T96">
+        <v>16.72618056841571</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.08222693661879596</v>
+      </c>
+      <c r="W96">
+        <v>0.1988050882568728</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.3289077464751839</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2365473263312137</v>
+      </c>
+      <c r="C97">
+        <v>-16.79586900820692</v>
+      </c>
+      <c r="D97">
+        <v>4.395130991793078</v>
+      </c>
+      <c r="E97">
+        <v>26.921</v>
+      </c>
+      <c r="F97">
+        <v>28.101</v>
+      </c>
+      <c r="G97">
+        <v>6.91</v>
+      </c>
+      <c r="H97">
+        <v>28.4</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.54</v>
+      </c>
+      <c r="K97">
+        <v>2.22</v>
+      </c>
+      <c r="L97">
+        <v>-1.68</v>
+      </c>
+      <c r="M97">
+        <v>5.1621537</v>
+      </c>
+      <c r="N97">
+        <v>-6.842153700000001</v>
+      </c>
+      <c r="O97">
+        <v>-1.710538425</v>
+      </c>
+      <c r="P97">
+        <v>-5.131615275000001</v>
+      </c>
+      <c r="Q97">
+        <v>-2.911615275</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.956670867395066</v>
+      </c>
+      <c r="T97">
+        <v>20.07141668209886</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.08136138991754546</v>
+      </c>
+      <c r="W97">
+        <v>0.1986460873278531</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.325445559670182</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2382913263312137</v>
+      </c>
+      <c r="C98">
+        <v>-17.12514236535321</v>
+      </c>
+      <c r="D98">
+        <v>4.361657634646786</v>
+      </c>
+      <c r="E98">
+        <v>27.2168</v>
+      </c>
+      <c r="F98">
+        <v>28.3968</v>
+      </c>
+      <c r="G98">
+        <v>6.91</v>
+      </c>
+      <c r="H98">
+        <v>28.4</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.54</v>
+      </c>
+      <c r="K98">
+        <v>2.22</v>
+      </c>
+      <c r="L98">
+        <v>-1.68</v>
+      </c>
+      <c r="M98">
+        <v>5.21649216</v>
+      </c>
+      <c r="N98">
+        <v>-6.896492159999999</v>
+      </c>
+      <c r="O98">
+        <v>-1.72412304</v>
+      </c>
+      <c r="P98">
+        <v>-5.172369119999999</v>
+      </c>
+      <c r="Q98">
+        <v>-2.952369119999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.19351358424383</v>
+      </c>
+      <c r="T98">
+        <v>25.08927085262352</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.08051387543923771</v>
+      </c>
+      <c r="W98">
+        <v>0.198490398918188</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.3220555017569509</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2400353263312137</v>
+      </c>
+      <c r="C99">
+        <v>-17.45390970952099</v>
+      </c>
+      <c r="D99">
+        <v>4.328690290479015</v>
+      </c>
+      <c r="E99">
+        <v>27.5126</v>
+      </c>
+      <c r="F99">
+        <v>28.6926</v>
+      </c>
+      <c r="G99">
+        <v>6.91</v>
+      </c>
+      <c r="H99">
+        <v>28.4</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.54</v>
+      </c>
+      <c r="K99">
+        <v>2.22</v>
+      </c>
+      <c r="L99">
+        <v>-1.68</v>
+      </c>
+      <c r="M99">
+        <v>5.27083062</v>
+      </c>
+      <c r="N99">
+        <v>-6.95083062</v>
+      </c>
+      <c r="O99">
+        <v>-1.737707655</v>
+      </c>
+      <c r="P99">
+        <v>-5.213122965</v>
+      </c>
+      <c r="Q99">
+        <v>-2.993122965</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.58825144565844</v>
+      </c>
+      <c r="T99">
+        <v>33.45236113683135</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.07968383548625588</v>
+      </c>
+      <c r="W99">
+        <v>0.1983379205788252</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.3187353419450234</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2417793263312137</v>
+      </c>
+      <c r="C100">
+        <v>-17.78218242864715</v>
+      </c>
+      <c r="D100">
+        <v>4.296217571352844</v>
+      </c>
+      <c r="E100">
+        <v>27.8084</v>
+      </c>
+      <c r="F100">
+        <v>28.9884</v>
+      </c>
+      <c r="G100">
+        <v>6.91</v>
+      </c>
+      <c r="H100">
+        <v>28.4</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.54</v>
+      </c>
+      <c r="K100">
+        <v>2.22</v>
+      </c>
+      <c r="L100">
+        <v>-1.68</v>
+      </c>
+      <c r="M100">
+        <v>5.32516908</v>
+      </c>
+      <c r="N100">
+        <v>-7.00516908</v>
+      </c>
+      <c r="O100">
+        <v>-1.75129227</v>
+      </c>
+      <c r="P100">
+        <v>-5.25387681</v>
+      </c>
+      <c r="Q100">
+        <v>-3.033876809999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.37772716848766</v>
+      </c>
+      <c r="T100">
+        <v>50.17854170524702</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.07887073512415121</v>
+      </c>
+      <c r="W100">
+        <v>0.1981885540423066</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.3154829404966049</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2435233263312137</v>
+      </c>
+      <c r="C101">
+        <v>-18.10997157149556</v>
+      </c>
+      <c r="D101">
+        <v>4.264228428504435</v>
+      </c>
+      <c r="E101">
+        <v>28.1042</v>
+      </c>
+      <c r="F101">
+        <v>29.2842</v>
+      </c>
+      <c r="G101">
+        <v>6.91</v>
+      </c>
+      <c r="H101">
+        <v>28.4</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.54</v>
+      </c>
+      <c r="K101">
+        <v>2.22</v>
+      </c>
+      <c r="L101">
+        <v>-1.68</v>
+      </c>
+      <c r="M101">
+        <v>5.37950754</v>
+      </c>
+      <c r="N101">
+        <v>-7.05950754</v>
+      </c>
+      <c r="O101">
+        <v>-1.764876885</v>
+      </c>
+      <c r="P101">
+        <v>-5.294630655000001</v>
+      </c>
+      <c r="Q101">
+        <v>-3.074630655</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.746154336975319</v>
+      </c>
+      <c r="T101">
+        <v>100.3570834104941</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.07807406103198808</v>
+      </c>
+      <c r="W101">
+        <v>0.1980422050115762</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.3122962441279524</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
